--- a/data/origin_twitter_names/人物Twitter对应表英文.xlsx
+++ b/data/origin_twitter_names/人物Twitter对应表英文.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大创\twitter_analysis\data\origin_twitter_names\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A382E50-D2D2-400E-BF71-89C83F111933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC17CF-F036-440F-8CBF-389905C1956C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="1482">
   <si>
     <t>country</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3763,42 +3763,6 @@
   </si>
   <si>
     <t>Ministro de Relaciones Exteriores y Culto de la República de Costa Rica</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COTE D'IVOIRE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Monsieur Alassane</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Microsoft YaHei"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ouattara</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -15843,6 +15807,10 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COTE D IVOIRE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -16673,8 +16641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F183" sqref="F183"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6"/>
@@ -20379,19 +20347,19 @@
     <row r="110" spans="1:26" ht="18.75" customHeight="1">
       <c r="A110" s="49"/>
       <c r="B110" s="15" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="E110" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="D110" s="16" t="s">
+      <c r="F110" s="43" t="s">
         <v>316</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="F110" s="43" t="s">
-        <v>318</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -20418,10 +20386,10 @@
       <c r="A111" s="49"/>
       <c r="B111" s="1"/>
       <c r="C111" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D111" s="16" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E111" s="31"/>
       <c r="F111" s="31"/>
@@ -20450,10 +20418,10 @@
       <c r="A112" s="49"/>
       <c r="B112" s="1"/>
       <c r="C112" s="13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D112" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E112" s="31"/>
       <c r="F112" s="31"/>
@@ -20481,19 +20449,19 @@
     <row r="113" spans="1:26" ht="16.8">
       <c r="A113" s="49"/>
       <c r="B113" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D113" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="C113" s="13" t="s">
+      <c r="E113" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="D113" s="16" t="s">
+      <c r="F113" s="43" t="s">
         <v>325</v>
-      </c>
-      <c r="E113" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="F113" s="43" t="s">
-        <v>327</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -20520,10 +20488,10 @@
       <c r="A114" s="49"/>
       <c r="B114" s="1"/>
       <c r="C114" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E114" s="31"/>
       <c r="F114" s="31"/>
@@ -20552,10 +20520,10 @@
       <c r="A115" s="49"/>
       <c r="B115" s="1"/>
       <c r="C115" s="13" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D115" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E115" s="31"/>
       <c r="F115" s="31"/>
@@ -20583,13 +20551,13 @@
     <row r="116" spans="1:26" ht="24" customHeight="1">
       <c r="A116" s="49"/>
       <c r="B116" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="D116" s="16" t="s">
         <v>332</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>334</v>
       </c>
       <c r="E116" s="31"/>
       <c r="F116" s="31"/>
@@ -20618,10 +20586,10 @@
       <c r="A117" s="49"/>
       <c r="B117" s="1"/>
       <c r="C117" s="13" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D117" s="16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E117" s="31"/>
       <c r="F117" s="31"/>
@@ -20651,13 +20619,13 @@
       <c r="B118" s="1"/>
       <c r="C118" s="13"/>
       <c r="D118" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F118" s="43" t="s">
         <v>337</v>
-      </c>
-      <c r="E118" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="F118" s="43" t="s">
-        <v>339</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -20683,19 +20651,19 @@
     <row r="119" spans="1:26" ht="18.75" customHeight="1">
       <c r="A119" s="49"/>
       <c r="B119" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D119" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C119" s="13" t="s">
+      <c r="E119" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="D119" s="16" t="s">
+      <c r="F119" s="43" t="s">
         <v>342</v>
-      </c>
-      <c r="E119" s="32" t="s">
-        <v>343</v>
-      </c>
-      <c r="F119" s="43" t="s">
-        <v>344</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -20722,16 +20690,16 @@
       <c r="A120" s="49"/>
       <c r="B120" s="1"/>
       <c r="C120" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="E120" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="D120" s="16" t="s">
+      <c r="F120" s="43" t="s">
         <v>346</v>
-      </c>
-      <c r="E120" s="32" t="s">
-        <v>347</v>
-      </c>
-      <c r="F120" s="43" t="s">
-        <v>348</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -20757,13 +20725,13 @@
     <row r="121" spans="1:26">
       <c r="A121" s="49"/>
       <c r="B121" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="D121" s="16" t="s">
         <v>349</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="D121" s="16" t="s">
-        <v>351</v>
       </c>
       <c r="E121" s="31"/>
       <c r="F121" s="31"/>
@@ -20792,10 +20760,10 @@
       <c r="A122" s="49"/>
       <c r="B122" s="1"/>
       <c r="C122" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D122" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E122" s="31"/>
       <c r="F122" s="31"/>
@@ -20824,16 +20792,16 @@
       <c r="A123" s="49"/>
       <c r="B123" s="1"/>
       <c r="C123" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="D123" s="16" t="s">
+      <c r="F123" s="43" t="s">
         <v>355</v>
-      </c>
-      <c r="E123" s="32" t="s">
-        <v>356</v>
-      </c>
-      <c r="F123" s="43" t="s">
-        <v>357</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -20859,13 +20827,13 @@
     <row r="124" spans="1:26" ht="48" customHeight="1">
       <c r="A124" s="49"/>
       <c r="B124" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" s="16" t="s">
         <v>358</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="D124" s="16" t="s">
-        <v>360</v>
       </c>
       <c r="E124" s="31"/>
       <c r="F124" s="31"/>
@@ -20892,14 +20860,14 @@
     </row>
     <row r="125" spans="1:26" ht="20.399999999999999">
       <c r="A125" s="50" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E125" s="31"/>
       <c r="F125" s="3"/>
@@ -20928,10 +20896,10 @@
       <c r="A126" s="49"/>
       <c r="B126" s="1"/>
       <c r="C126" s="13" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E126" s="31"/>
       <c r="F126" s="3"/>
@@ -20959,10 +20927,10 @@
     <row r="127" spans="1:26" ht="43.2">
       <c r="A127" s="49"/>
       <c r="B127" s="24" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C127" s="25" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="31"/>
@@ -20992,10 +20960,10 @@
       <c r="A128" s="49"/>
       <c r="B128" s="1"/>
       <c r="C128" s="13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E128" s="31"/>
       <c r="F128" s="3"/>
@@ -21024,10 +20992,10 @@
       <c r="A129" s="49"/>
       <c r="B129" s="1"/>
       <c r="C129" s="13" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E129" s="31"/>
       <c r="F129" s="3"/>
@@ -21055,10 +21023,10 @@
     <row r="130" spans="1:26">
       <c r="A130" s="49"/>
       <c r="B130" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="31"/>
@@ -21088,16 +21056,16 @@
       <c r="A131" s="49"/>
       <c r="B131" s="1"/>
       <c r="C131" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="E131" s="34" t="s">
         <v>374</v>
       </c>
-      <c r="D131" s="14" t="s">
+      <c r="F131" s="26" t="s">
         <v>375</v>
-      </c>
-      <c r="E131" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="F131" s="26" t="s">
-        <v>377</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
@@ -21124,16 +21092,16 @@
       <c r="A132" s="49"/>
       <c r="B132" s="1"/>
       <c r="C132" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="E132" s="34" t="s">
         <v>378</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="F132" s="26" t="s">
         <v>379</v>
-      </c>
-      <c r="E132" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="F132" s="26" t="s">
-        <v>381</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
@@ -21159,19 +21127,19 @@
     <row r="133" spans="1:26" ht="20.399999999999999">
       <c r="A133" s="49"/>
       <c r="B133" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D133" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="E133" s="34" t="s">
         <v>383</v>
       </c>
-      <c r="D133" s="14" t="s">
+      <c r="F133" s="26" t="s">
         <v>384</v>
-      </c>
-      <c r="E133" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="F133" s="26" t="s">
-        <v>386</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -21198,10 +21166,10 @@
       <c r="A134" s="49"/>
       <c r="B134" s="1"/>
       <c r="C134" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E134" s="31"/>
       <c r="F134" s="3"/>
@@ -21230,10 +21198,10 @@
       <c r="A135" s="49"/>
       <c r="B135" s="1"/>
       <c r="C135" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E135" s="31"/>
       <c r="F135" s="3"/>
@@ -21261,13 +21229,13 @@
     <row r="136" spans="1:26">
       <c r="A136" s="49"/>
       <c r="B136" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D136" s="14" t="s">
         <v>391</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="D136" s="14" t="s">
-        <v>393</v>
       </c>
       <c r="E136" s="31"/>
       <c r="F136" s="3"/>
@@ -21296,10 +21264,10 @@
       <c r="A137" s="49"/>
       <c r="B137" s="1"/>
       <c r="C137" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E137" s="31"/>
       <c r="F137" s="3"/>
@@ -21328,10 +21296,10 @@
       <c r="A138" s="49"/>
       <c r="B138" s="1"/>
       <c r="C138" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E138" s="31"/>
       <c r="F138" s="3"/>
@@ -21359,19 +21327,19 @@
     <row r="139" spans="1:26">
       <c r="A139" s="49"/>
       <c r="B139" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D139" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="E139" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="F139" s="26" t="s">
         <v>400</v>
-      </c>
-      <c r="E139" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="F139" s="26" t="s">
-        <v>402</v>
       </c>
       <c r="G139" s="4"/>
       <c r="H139" s="4"/>
@@ -21398,16 +21366,16 @@
       <c r="A140" s="49"/>
       <c r="B140" s="1"/>
       <c r="C140" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="E140" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="D140" s="14" t="s">
+      <c r="F140" s="26" t="s">
         <v>404</v>
-      </c>
-      <c r="E140" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>406</v>
       </c>
       <c r="G140" s="4"/>
       <c r="H140" s="4"/>
@@ -21433,19 +21401,19 @@
     <row r="141" spans="1:26">
       <c r="A141" s="49"/>
       <c r="B141" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="D141" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="E141" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="D141" s="14" t="s">
+      <c r="F141" s="26" t="s">
         <v>409</v>
-      </c>
-      <c r="E141" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="F141" s="26" t="s">
-        <v>411</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
@@ -21472,16 +21440,16 @@
       <c r="A142" s="49"/>
       <c r="B142" s="1"/>
       <c r="C142" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E142" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="F142" s="26" t="s">
         <v>413</v>
-      </c>
-      <c r="E142" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="F142" s="26" t="s">
-        <v>415</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4"/>
@@ -21507,19 +21475,19 @@
     <row r="143" spans="1:26">
       <c r="A143" s="49"/>
       <c r="B143" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="D143" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="E143" s="34" t="s">
         <v>417</v>
       </c>
-      <c r="D143" s="11" t="s">
+      <c r="F143" s="26" t="s">
         <v>418</v>
-      </c>
-      <c r="E143" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="F143" s="26" t="s">
-        <v>420</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -21546,10 +21514,10 @@
       <c r="A144" s="49"/>
       <c r="B144" s="1"/>
       <c r="C144" s="13" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="3"/>
@@ -21578,10 +21546,10 @@
       <c r="A145" s="49"/>
       <c r="B145" s="1"/>
       <c r="C145" s="13" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E145" s="31"/>
       <c r="F145" s="3"/>
@@ -21609,19 +21577,19 @@
     <row r="146" spans="1:26">
       <c r="A146" s="49"/>
       <c r="B146" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D146" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="E146" s="34" t="s">
         <v>426</v>
       </c>
-      <c r="D146" s="14" t="s">
+      <c r="F146" s="26" t="s">
         <v>427</v>
-      </c>
-      <c r="E146" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="F146" s="26" t="s">
-        <v>429</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
@@ -21648,10 +21616,10 @@
       <c r="A147" s="49"/>
       <c r="B147" s="1"/>
       <c r="C147" s="13" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D147" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E147" s="31"/>
       <c r="F147" s="3"/>
@@ -21679,13 +21647,13 @@
     <row r="148" spans="1:26" ht="20.399999999999999">
       <c r="A148" s="49"/>
       <c r="B148" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="D148" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="D148" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="E148" s="31"/>
       <c r="F148" s="3"/>
@@ -21714,10 +21682,10 @@
       <c r="A149" s="49"/>
       <c r="B149" s="1"/>
       <c r="C149" s="13" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E149" s="31"/>
       <c r="F149" s="3"/>
@@ -21746,10 +21714,10 @@
       <c r="A150" s="49"/>
       <c r="B150" s="1"/>
       <c r="C150" s="13" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E150" s="31"/>
       <c r="F150" s="3"/>
@@ -21777,13 +21745,13 @@
     <row r="151" spans="1:26">
       <c r="A151" s="49"/>
       <c r="B151" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="C151" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>441</v>
       </c>
       <c r="E151" s="31"/>
       <c r="F151" s="3"/>
@@ -21812,10 +21780,10 @@
       <c r="A152" s="49"/>
       <c r="B152" s="1"/>
       <c r="C152" s="13" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E152" s="31"/>
       <c r="F152" s="3"/>
@@ -21843,19 +21811,19 @@
     <row r="153" spans="1:26">
       <c r="A153" s="49"/>
       <c r="B153" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="E153" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="F153" s="26" t="s">
         <v>446</v>
-      </c>
-      <c r="E153" s="34" t="s">
-        <v>447</v>
-      </c>
-      <c r="F153" s="26" t="s">
-        <v>448</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -21882,16 +21850,16 @@
       <c r="A154" s="49"/>
       <c r="B154" s="1"/>
       <c r="C154" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D154" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="E154" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="F154" s="26" t="s">
         <v>450</v>
-      </c>
-      <c r="E154" s="34" t="s">
-        <v>451</v>
-      </c>
-      <c r="F154" s="26" t="s">
-        <v>452</v>
       </c>
       <c r="G154" s="4"/>
       <c r="H154" s="4"/>
@@ -21918,16 +21886,16 @@
       <c r="A155" s="49"/>
       <c r="B155" s="1"/>
       <c r="C155" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="D155" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="E155" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="F155" s="28" t="s">
         <v>454</v>
-      </c>
-      <c r="E155" s="35" t="s">
-        <v>455</v>
-      </c>
-      <c r="F155" s="28" t="s">
-        <v>456</v>
       </c>
       <c r="G155" s="4"/>
       <c r="H155" s="4"/>
@@ -21953,13 +21921,13 @@
     <row r="156" spans="1:26" ht="20.399999999999999">
       <c r="A156" s="49"/>
       <c r="B156" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D156" s="14" t="s">
         <v>457</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="D156" s="14" t="s">
-        <v>459</v>
       </c>
       <c r="E156" s="31"/>
       <c r="F156" s="3"/>
@@ -21988,10 +21956,10 @@
       <c r="A157" s="49"/>
       <c r="B157" s="1"/>
       <c r="C157" s="13" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E157" s="31"/>
       <c r="F157" s="3"/>
@@ -22020,16 +21988,16 @@
       <c r="A158" s="49"/>
       <c r="B158" s="1"/>
       <c r="C158" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="D158" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="E158" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="F158" s="26" t="s">
         <v>463</v>
-      </c>
-      <c r="E158" s="34" t="s">
-        <v>464</v>
-      </c>
-      <c r="F158" s="26" t="s">
-        <v>465</v>
       </c>
       <c r="G158" s="4"/>
       <c r="H158" s="4"/>
@@ -22055,13 +22023,13 @@
     <row r="159" spans="1:26" ht="31.2">
       <c r="A159" s="49"/>
       <c r="B159" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="C159" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C159" s="25" t="s">
-        <v>467</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="E159" s="31"/>
       <c r="F159" s="3"/>
@@ -22090,10 +22058,10 @@
       <c r="A160" s="49"/>
       <c r="B160" s="1"/>
       <c r="C160" s="25" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E160" s="31"/>
       <c r="F160" s="3"/>
@@ -22122,10 +22090,10 @@
       <c r="A161" s="49"/>
       <c r="B161" s="1"/>
       <c r="C161" s="13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E161" s="31"/>
       <c r="F161" s="3"/>
@@ -22153,19 +22121,19 @@
     <row r="162" spans="1:26">
       <c r="A162" s="49"/>
       <c r="B162" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="D162" s="14" t="s">
         <v>473</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="E162" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="F162" s="26" t="s">
         <v>475</v>
-      </c>
-      <c r="E162" s="34" t="s">
-        <v>476</v>
-      </c>
-      <c r="F162" s="26" t="s">
-        <v>477</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -22192,16 +22160,16 @@
       <c r="A163" s="49"/>
       <c r="B163" s="1"/>
       <c r="C163" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="E163" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="F163" s="26" t="s">
         <v>479</v>
-      </c>
-      <c r="E163" s="34" t="s">
-        <v>480</v>
-      </c>
-      <c r="F163" s="26" t="s">
-        <v>481</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
@@ -22228,10 +22196,10 @@
       <c r="A164" s="49"/>
       <c r="B164" s="1"/>
       <c r="C164" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E164" s="31"/>
       <c r="F164" s="3"/>
@@ -22259,19 +22227,19 @@
     <row r="165" spans="1:26">
       <c r="A165" s="49"/>
       <c r="B165" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D165" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="E165" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="F165" s="26" t="s">
         <v>486</v>
-      </c>
-      <c r="E165" s="34" t="s">
-        <v>487</v>
-      </c>
-      <c r="F165" s="26" t="s">
-        <v>488</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -22298,16 +22266,16 @@
       <c r="A166" s="49"/>
       <c r="B166" s="1"/>
       <c r="C166" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E166" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="F166" s="26" t="s">
         <v>490</v>
-      </c>
-      <c r="E166" s="34" t="s">
-        <v>491</v>
-      </c>
-      <c r="F166" s="26" t="s">
-        <v>492</v>
       </c>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
@@ -22334,16 +22302,16 @@
       <c r="A167" s="49"/>
       <c r="B167" s="1"/>
       <c r="C167" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E167" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="F167" s="26" t="s">
         <v>494</v>
-      </c>
-      <c r="E167" s="34" t="s">
-        <v>495</v>
-      </c>
-      <c r="F167" s="26" t="s">
-        <v>496</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -22369,19 +22337,19 @@
     <row r="168" spans="1:26">
       <c r="A168" s="49"/>
       <c r="B168" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="D168" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="E168" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="D168" s="14" t="s">
+      <c r="F168" s="26" t="s">
         <v>499</v>
-      </c>
-      <c r="E168" s="34" t="s">
-        <v>500</v>
-      </c>
-      <c r="F168" s="26" t="s">
-        <v>501</v>
       </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
@@ -22408,10 +22376,10 @@
       <c r="A169" s="49"/>
       <c r="B169" s="1"/>
       <c r="C169" s="13" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E169" s="31"/>
       <c r="F169" s="3"/>
@@ -22440,10 +22408,10 @@
       <c r="A170" s="49"/>
       <c r="B170" s="1"/>
       <c r="C170" s="13" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E170" s="31"/>
       <c r="F170" s="3"/>
@@ -22471,13 +22439,13 @@
     <row r="171" spans="1:26" ht="28.8">
       <c r="A171" s="49"/>
       <c r="B171" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C171" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="D171" s="14" t="s">
         <v>506</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="D171" s="14" t="s">
-        <v>508</v>
       </c>
       <c r="E171" s="31"/>
       <c r="F171" s="3"/>
@@ -22506,10 +22474,10 @@
       <c r="A172" s="49"/>
       <c r="B172" s="1"/>
       <c r="C172" s="13" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E172" s="31"/>
       <c r="F172" s="3"/>
@@ -22537,13 +22505,13 @@
     <row r="173" spans="1:26">
       <c r="A173" s="49"/>
       <c r="B173" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="D173" s="14" t="s">
         <v>511</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>512</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>513</v>
       </c>
       <c r="E173" s="31"/>
       <c r="F173" s="3"/>
@@ -22572,16 +22540,16 @@
       <c r="A174" s="49"/>
       <c r="B174" s="1"/>
       <c r="C174" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E174" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="F174" s="26" t="s">
         <v>515</v>
-      </c>
-      <c r="E174" s="34" t="s">
-        <v>516</v>
-      </c>
-      <c r="F174" s="26" t="s">
-        <v>517</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -22608,16 +22576,16 @@
       <c r="A175" s="49"/>
       <c r="B175" s="1"/>
       <c r="C175" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E175" s="34" t="s">
         <v>518</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="F175" s="26" t="s">
         <v>519</v>
-      </c>
-      <c r="E175" s="34" t="s">
-        <v>520</v>
-      </c>
-      <c r="F175" s="26" t="s">
-        <v>521</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -22643,13 +22611,13 @@
     <row r="176" spans="1:26">
       <c r="A176" s="49"/>
       <c r="B176" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D176" s="14" t="s">
         <v>522</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="D176" s="14" t="s">
-        <v>524</v>
       </c>
       <c r="E176" s="31"/>
       <c r="F176" s="3"/>
@@ -22678,10 +22646,10 @@
       <c r="A177" s="49"/>
       <c r="B177" s="1"/>
       <c r="C177" s="13" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E177" s="31"/>
       <c r="F177" s="3"/>
@@ -22710,10 +22678,10 @@
       <c r="A178" s="49"/>
       <c r="B178" s="1"/>
       <c r="C178" s="13" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E178" s="31"/>
       <c r="F178" s="3"/>
@@ -22741,19 +22709,19 @@
     <row r="179" spans="1:26">
       <c r="A179" s="49"/>
       <c r="B179" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D179" s="14" t="s">
         <v>529</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="E179" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="D179" s="14" t="s">
+      <c r="F179" s="26" t="s">
         <v>531</v>
-      </c>
-      <c r="E179" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="F179" s="26" t="s">
-        <v>533</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4"/>
@@ -22780,10 +22748,10 @@
       <c r="A180" s="49"/>
       <c r="B180" s="1"/>
       <c r="C180" s="13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E180" s="31"/>
       <c r="F180" s="3"/>
@@ -22811,13 +22779,13 @@
     <row r="181" spans="1:26">
       <c r="A181" s="49"/>
       <c r="B181" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D181" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="C181" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="D181" s="14" t="s">
-        <v>538</v>
       </c>
       <c r="E181" s="31"/>
       <c r="F181" s="3"/>
@@ -22846,16 +22814,16 @@
       <c r="A182" s="49"/>
       <c r="B182" s="12"/>
       <c r="C182" s="13" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="G182" s="46"/>
       <c r="H182" s="46"/>
@@ -22882,16 +22850,16 @@
       <c r="A183" s="49"/>
       <c r="B183" s="1"/>
       <c r="C183" s="47" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E183" s="35" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4"/>
@@ -22918,10 +22886,10 @@
       <c r="A184" s="49"/>
       <c r="B184" s="1"/>
       <c r="C184" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E184" s="31"/>
       <c r="F184" s="3"/>
@@ -22949,13 +22917,13 @@
     <row r="185" spans="1:26">
       <c r="A185" s="49"/>
       <c r="B185" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="D185" s="14" t="s">
         <v>543</v>
-      </c>
-      <c r="C185" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="D185" s="14" t="s">
-        <v>545</v>
       </c>
       <c r="E185" s="31"/>
       <c r="F185" s="3"/>
@@ -22984,10 +22952,10 @@
       <c r="A186" s="49"/>
       <c r="B186" s="1"/>
       <c r="C186" s="13" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E186" s="31"/>
       <c r="F186" s="3"/>
@@ -23016,10 +22984,10 @@
       <c r="A187" s="49"/>
       <c r="B187" s="1"/>
       <c r="C187" s="13" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E187" s="31"/>
       <c r="F187" s="3"/>
@@ -23047,19 +23015,19 @@
     <row r="188" spans="1:26">
       <c r="A188" s="49"/>
       <c r="B188" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>549</v>
+      </c>
+      <c r="D188" s="14" t="s">
         <v>550</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="E188" s="34" t="s">
         <v>551</v>
       </c>
-      <c r="D188" s="14" t="s">
+      <c r="F188" s="26" t="s">
         <v>552</v>
-      </c>
-      <c r="E188" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="F188" s="26" t="s">
-        <v>554</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="4"/>
@@ -23086,10 +23054,10 @@
       <c r="A189" s="49"/>
       <c r="B189" s="1"/>
       <c r="C189" s="13" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E189" s="31"/>
       <c r="F189" s="3"/>
@@ -23117,13 +23085,13 @@
     <row r="190" spans="1:26">
       <c r="A190" s="49"/>
       <c r="B190" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="D190" s="14" t="s">
         <v>557</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>558</v>
-      </c>
-      <c r="D190" s="14" t="s">
-        <v>559</v>
       </c>
       <c r="E190" s="31"/>
       <c r="F190" s="3"/>
@@ -23152,10 +23120,10 @@
       <c r="A191" s="49"/>
       <c r="B191" s="1"/>
       <c r="C191" s="13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D191" s="27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E191" s="31"/>
       <c r="F191" s="3"/>
@@ -23184,10 +23152,10 @@
       <c r="A192" s="49"/>
       <c r="B192" s="1"/>
       <c r="C192" s="13" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D192" s="27" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E192" s="31"/>
       <c r="F192" s="3"/>
@@ -23215,13 +23183,13 @@
     <row r="193" spans="1:26">
       <c r="A193" s="49"/>
       <c r="B193" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>563</v>
+      </c>
+      <c r="D193" s="14" t="s">
         <v>564</v>
-      </c>
-      <c r="C193" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="D193" s="14" t="s">
-        <v>566</v>
       </c>
       <c r="E193" s="31"/>
       <c r="F193" s="3"/>
@@ -23250,10 +23218,10 @@
       <c r="A194" s="49"/>
       <c r="B194" s="1"/>
       <c r="C194" s="13" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E194" s="31"/>
       <c r="F194" s="3"/>
@@ -23282,10 +23250,10 @@
       <c r="A195" s="49"/>
       <c r="B195" s="1"/>
       <c r="C195" s="13" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E195" s="31"/>
       <c r="F195" s="3"/>
@@ -23313,13 +23281,13 @@
     <row r="196" spans="1:26">
       <c r="A196" s="49"/>
       <c r="B196" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="D196" s="14" t="s">
         <v>571</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="D196" s="14" t="s">
-        <v>573</v>
       </c>
       <c r="E196" s="31"/>
       <c r="F196" s="3"/>
@@ -23348,10 +23316,10 @@
       <c r="A197" s="49"/>
       <c r="B197" s="1"/>
       <c r="C197" s="13" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E197" s="31"/>
       <c r="F197" s="3"/>
@@ -23380,10 +23348,10 @@
       <c r="A198" s="49"/>
       <c r="B198" s="1"/>
       <c r="C198" s="13" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E198" s="31"/>
       <c r="F198" s="3"/>
@@ -23411,13 +23379,13 @@
     <row r="199" spans="1:26">
       <c r="A199" s="49"/>
       <c r="B199" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D199" s="14" t="s">
         <v>578</v>
-      </c>
-      <c r="C199" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="D199" s="14" t="s">
-        <v>580</v>
       </c>
       <c r="E199" s="31"/>
       <c r="F199" s="3"/>
@@ -23446,10 +23414,10 @@
       <c r="A200" s="49"/>
       <c r="B200" s="1"/>
       <c r="C200" s="13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E200" s="31"/>
       <c r="F200" s="3"/>
@@ -23478,10 +23446,10 @@
       <c r="A201" s="49"/>
       <c r="B201" s="1"/>
       <c r="C201" s="13" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E201" s="31"/>
       <c r="F201" s="3"/>
@@ -23509,19 +23477,19 @@
     <row r="202" spans="1:26" ht="31.2">
       <c r="A202" s="49"/>
       <c r="B202" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E202" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="F202" s="26" t="s">
         <v>585</v>
-      </c>
-      <c r="C202" s="25" t="s">
-        <v>1476</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="E202" s="34" t="s">
-        <v>586</v>
-      </c>
-      <c r="F202" s="26" t="s">
-        <v>587</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4"/>
@@ -23548,10 +23516,10 @@
       <c r="A203" s="49"/>
       <c r="B203" s="1"/>
       <c r="C203" s="13" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E203" s="31"/>
       <c r="F203" s="3"/>
@@ -23579,13 +23547,13 @@
     <row r="204" spans="1:26">
       <c r="A204" s="49"/>
       <c r="B204" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="C204" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="D204" s="14" t="s">
         <v>590</v>
-      </c>
-      <c r="C204" s="13" t="s">
-        <v>591</v>
-      </c>
-      <c r="D204" s="14" t="s">
-        <v>592</v>
       </c>
       <c r="E204" s="31"/>
       <c r="F204" s="3"/>
@@ -23614,10 +23582,10 @@
       <c r="A205" s="49"/>
       <c r="B205" s="1"/>
       <c r="C205" s="13" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E205" s="31"/>
       <c r="F205" s="3"/>
@@ -23646,10 +23614,10 @@
       <c r="A206" s="49"/>
       <c r="B206" s="1"/>
       <c r="C206" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E206" s="31"/>
       <c r="F206" s="3"/>
@@ -23677,13 +23645,13 @@
     <row r="207" spans="1:26">
       <c r="A207" s="49"/>
       <c r="B207" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="C207" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="D207" s="14" t="s">
         <v>597</v>
-      </c>
-      <c r="C207" s="13" t="s">
-        <v>598</v>
-      </c>
-      <c r="D207" s="14" t="s">
-        <v>599</v>
       </c>
       <c r="E207" s="31"/>
       <c r="F207" s="3"/>
@@ -23712,10 +23680,10 @@
       <c r="A208" s="49"/>
       <c r="B208" s="1"/>
       <c r="C208" s="13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E208" s="31"/>
       <c r="F208" s="3"/>
@@ -23744,10 +23712,10 @@
       <c r="A209" s="49"/>
       <c r="B209" s="1"/>
       <c r="C209" s="13" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E209" s="31"/>
       <c r="F209" s="3"/>
@@ -23775,19 +23743,19 @@
     <row r="210" spans="1:26">
       <c r="A210" s="49"/>
       <c r="B210" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="C210" s="13" t="s">
+        <v>603</v>
+      </c>
+      <c r="D210" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="C210" s="13" t="s">
+      <c r="E210" s="34" t="s">
         <v>605</v>
       </c>
-      <c r="D210" s="14" t="s">
+      <c r="F210" s="26" t="s">
         <v>606</v>
-      </c>
-      <c r="E210" s="34" t="s">
-        <v>607</v>
-      </c>
-      <c r="F210" s="26" t="s">
-        <v>608</v>
       </c>
       <c r="G210" s="4"/>
       <c r="H210" s="4"/>
@@ -23814,16 +23782,16 @@
       <c r="A211" s="49"/>
       <c r="B211" s="1"/>
       <c r="C211" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="D211" s="14" t="s">
+        <v>608</v>
+      </c>
+      <c r="E211" s="34" t="s">
         <v>609</v>
       </c>
-      <c r="D211" s="14" t="s">
+      <c r="F211" s="26" t="s">
         <v>610</v>
-      </c>
-      <c r="E211" s="34" t="s">
-        <v>611</v>
-      </c>
-      <c r="F211" s="26" t="s">
-        <v>612</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="4"/>
@@ -23850,16 +23818,16 @@
       <c r="A212" s="49"/>
       <c r="B212" s="1"/>
       <c r="C212" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="D212" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="E212" s="34" t="s">
         <v>613</v>
       </c>
-      <c r="D212" s="14" t="s">
+      <c r="F212" s="26" t="s">
         <v>614</v>
-      </c>
-      <c r="E212" s="34" t="s">
-        <v>615</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>616</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="4"/>
@@ -23885,19 +23853,19 @@
     <row r="213" spans="1:26">
       <c r="A213" s="49"/>
       <c r="B213" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="C213" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="D213" s="14" t="s">
         <v>617</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="E213" s="34" t="s">
         <v>618</v>
       </c>
-      <c r="D213" s="14" t="s">
+      <c r="F213" s="26" t="s">
         <v>619</v>
-      </c>
-      <c r="E213" s="34" t="s">
-        <v>620</v>
-      </c>
-      <c r="F213" s="26" t="s">
-        <v>621</v>
       </c>
       <c r="G213" s="4"/>
       <c r="H213" s="4"/>
@@ -23924,10 +23892,10 @@
       <c r="A214" s="49"/>
       <c r="B214" s="1"/>
       <c r="C214" s="13" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E214" s="31"/>
       <c r="F214" s="3"/>
@@ -23955,19 +23923,19 @@
     <row r="215" spans="1:26">
       <c r="A215" s="49"/>
       <c r="B215" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C215" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="D215" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="E215" s="34" t="s">
         <v>625</v>
       </c>
-      <c r="D215" s="14" t="s">
+      <c r="F215" s="26" t="s">
         <v>626</v>
-      </c>
-      <c r="E215" s="34" t="s">
-        <v>627</v>
-      </c>
-      <c r="F215" s="26" t="s">
-        <v>628</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="4"/>
@@ -23994,16 +23962,16 @@
       <c r="A216" s="49"/>
       <c r="B216" s="1"/>
       <c r="C216" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="D216" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E216" s="34" t="s">
         <v>629</v>
       </c>
-      <c r="D216" s="14" t="s">
+      <c r="F216" s="26" t="s">
         <v>630</v>
-      </c>
-      <c r="E216" s="34" t="s">
-        <v>631</v>
-      </c>
-      <c r="F216" s="26" t="s">
-        <v>632</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="4"/>
@@ -24029,13 +23997,13 @@
     <row r="217" spans="1:26">
       <c r="A217" s="49"/>
       <c r="B217" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="C217" s="13" t="s">
+        <v>632</v>
+      </c>
+      <c r="D217" s="14" t="s">
         <v>633</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>634</v>
-      </c>
-      <c r="D217" s="14" t="s">
-        <v>635</v>
       </c>
       <c r="E217" s="31"/>
       <c r="F217" s="3"/>
@@ -24064,16 +24032,16 @@
       <c r="A218" s="49"/>
       <c r="B218" s="1"/>
       <c r="C218" s="13" t="s">
+        <v>634</v>
+      </c>
+      <c r="D218" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="E218" s="35" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F218" s="26" t="s">
         <v>636</v>
-      </c>
-      <c r="D218" s="14" t="s">
-        <v>637</v>
-      </c>
-      <c r="E218" s="35" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F218" s="26" t="s">
-        <v>638</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4"/>
@@ -24100,10 +24068,10 @@
       <c r="A219" s="49"/>
       <c r="B219" s="1"/>
       <c r="C219" s="13" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E219" s="31"/>
       <c r="F219" s="3"/>
@@ -24131,19 +24099,19 @@
     <row r="220" spans="1:26">
       <c r="A220" s="49"/>
       <c r="B220" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C220" s="13" t="s">
+        <v>640</v>
+      </c>
+      <c r="D220" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="E220" s="34" t="s">
         <v>642</v>
       </c>
-      <c r="D220" s="14" t="s">
+      <c r="F220" s="26" t="s">
         <v>643</v>
-      </c>
-      <c r="E220" s="34" t="s">
-        <v>644</v>
-      </c>
-      <c r="F220" s="26" t="s">
-        <v>645</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4"/>
@@ -24170,16 +24138,16 @@
       <c r="A221" s="49"/>
       <c r="B221" s="1"/>
       <c r="C221" s="13" t="s">
+        <v>644</v>
+      </c>
+      <c r="D221" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="E221" s="34" t="s">
         <v>646</v>
       </c>
-      <c r="D221" s="14" t="s">
+      <c r="F221" s="26" t="s">
         <v>647</v>
-      </c>
-      <c r="E221" s="34" t="s">
-        <v>648</v>
-      </c>
-      <c r="F221" s="26" t="s">
-        <v>649</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -24206,10 +24174,10 @@
       <c r="A222" s="49"/>
       <c r="B222" s="1"/>
       <c r="C222" s="13" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E222" s="31"/>
       <c r="F222" s="3"/>
@@ -24237,19 +24205,19 @@
     <row r="223" spans="1:26">
       <c r="A223" s="49"/>
       <c r="B223" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="C223" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="D223" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="C223" s="13" t="s">
+      <c r="E223" s="34" t="s">
         <v>653</v>
       </c>
-      <c r="D223" s="14" t="s">
+      <c r="F223" s="26" t="s">
         <v>654</v>
-      </c>
-      <c r="E223" s="34" t="s">
-        <v>655</v>
-      </c>
-      <c r="F223" s="26" t="s">
-        <v>656</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4"/>
@@ -24276,16 +24244,16 @@
       <c r="A224" s="49"/>
       <c r="B224" s="1"/>
       <c r="C224" s="13" t="s">
+        <v>655</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E224" s="34" t="s">
         <v>657</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="F224" s="26" t="s">
         <v>658</v>
-      </c>
-      <c r="E224" s="34" t="s">
-        <v>659</v>
-      </c>
-      <c r="F224" s="26" t="s">
-        <v>660</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4"/>
@@ -24310,16 +24278,16 @@
     </row>
     <row r="225" spans="1:26">
       <c r="A225" s="51" t="s">
+        <v>659</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="C225" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="B225" s="12" t="s">
+      <c r="D225" s="14" t="s">
         <v>662</v>
-      </c>
-      <c r="C225" s="13" t="s">
-        <v>663</v>
-      </c>
-      <c r="D225" s="14" t="s">
-        <v>664</v>
       </c>
       <c r="E225" s="31"/>
       <c r="F225" s="3"/>
@@ -24348,16 +24316,16 @@
       <c r="A226" s="49"/>
       <c r="B226" s="1"/>
       <c r="C226" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="D226" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="E226" s="31" t="s">
         <v>665</v>
       </c>
-      <c r="D226" s="14" t="s">
+      <c r="F226" s="8" t="s">
         <v>666</v>
-      </c>
-      <c r="E226" s="31" t="s">
-        <v>667</v>
-      </c>
-      <c r="F226" s="8" t="s">
-        <v>668</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="4"/>
@@ -24384,16 +24352,16 @@
       <c r="A227" s="49"/>
       <c r="B227" s="1"/>
       <c r="C227" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="D227" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="E227" s="31" t="s">
         <v>669</v>
       </c>
-      <c r="D227" s="14" t="s">
+      <c r="F227" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="E227" s="31" t="s">
-        <v>671</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>672</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4"/>
@@ -24419,19 +24387,19 @@
     <row r="228" spans="1:26" ht="16.8">
       <c r="A228" s="49"/>
       <c r="B228" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>672</v>
+      </c>
+      <c r="D228" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="E228" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="F228" s="44" t="s">
         <v>675</v>
-      </c>
-      <c r="E228" s="36" t="s">
-        <v>676</v>
-      </c>
-      <c r="F228" s="44" t="s">
-        <v>677</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="4"/>
@@ -24458,16 +24426,16 @@
       <c r="A229" s="49"/>
       <c r="B229" s="1"/>
       <c r="C229" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="D229" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="E229" s="36" t="s">
         <v>678</v>
       </c>
-      <c r="D229" s="11" t="s">
+      <c r="F229" s="44" t="s">
         <v>679</v>
-      </c>
-      <c r="E229" s="36" t="s">
-        <v>680</v>
-      </c>
-      <c r="F229" s="44" t="s">
-        <v>681</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4"/>
@@ -24494,10 +24462,10 @@
       <c r="A230" s="49"/>
       <c r="B230" s="1"/>
       <c r="C230" s="13" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D230" s="11" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E230" s="31"/>
       <c r="F230" s="3"/>
@@ -24525,11 +24493,11 @@
     <row r="231" spans="1:26" ht="16.8">
       <c r="A231" s="49"/>
       <c r="B231" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C231" s="29"/>
       <c r="D231" s="14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E231" s="31"/>
       <c r="F231" s="3"/>
@@ -24558,16 +24526,16 @@
       <c r="A232" s="49"/>
       <c r="B232" s="1"/>
       <c r="C232" s="13" t="s">
+        <v>684</v>
+      </c>
+      <c r="D232" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="E232" s="31" t="s">
         <v>686</v>
       </c>
-      <c r="D232" s="14" t="s">
+      <c r="F232" s="3" t="s">
         <v>687</v>
-      </c>
-      <c r="E232" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
@@ -24594,10 +24562,10 @@
       <c r="A233" s="49"/>
       <c r="B233" s="1"/>
       <c r="C233" s="13" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E233" s="31"/>
       <c r="F233" s="3"/>
@@ -24625,13 +24593,13 @@
     <row r="234" spans="1:26">
       <c r="A234" s="49"/>
       <c r="B234" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D234" s="14" t="s">
         <v>692</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>693</v>
-      </c>
-      <c r="D234" s="14" t="s">
-        <v>694</v>
       </c>
       <c r="E234" s="31"/>
       <c r="F234" s="3"/>
@@ -24660,10 +24628,10 @@
       <c r="A235" s="49"/>
       <c r="B235" s="1"/>
       <c r="C235" s="13" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="E235" s="31"/>
       <c r="F235" s="3"/>
@@ -24692,16 +24660,16 @@
       <c r="A236" s="49"/>
       <c r="B236" s="1"/>
       <c r="C236" s="13" t="s">
+        <v>695</v>
+      </c>
+      <c r="D236" s="14" t="s">
+        <v>696</v>
+      </c>
+      <c r="E236" s="31" t="s">
         <v>697</v>
       </c>
-      <c r="D236" s="14" t="s">
+      <c r="F236" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="E236" s="31" t="s">
-        <v>699</v>
-      </c>
-      <c r="F236" s="3" t="s">
-        <v>700</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
@@ -24727,19 +24695,19 @@
     <row r="237" spans="1:26">
       <c r="A237" s="49"/>
       <c r="B237" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>700</v>
+      </c>
+      <c r="D237" s="14" t="s">
         <v>701</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="E237" s="31" t="s">
         <v>702</v>
       </c>
-      <c r="D237" s="14" t="s">
+      <c r="F237" s="3" t="s">
         <v>703</v>
-      </c>
-      <c r="E237" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="F237" s="3" t="s">
-        <v>705</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
@@ -24766,16 +24734,16 @@
       <c r="A238" s="49"/>
       <c r="B238" s="1"/>
       <c r="C238" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D238" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E238" s="31" t="s">
         <v>706</v>
       </c>
-      <c r="D238" s="14" t="s">
+      <c r="F238" s="3" t="s">
         <v>707</v>
-      </c>
-      <c r="E238" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>709</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="4"/>
@@ -24802,10 +24770,10 @@
       <c r="A239" s="49"/>
       <c r="B239" s="1"/>
       <c r="C239" s="13" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="E239" s="31"/>
       <c r="F239" s="3"/>
@@ -24833,19 +24801,19 @@
     <row r="240" spans="1:26" ht="20.399999999999999">
       <c r="A240" s="49"/>
       <c r="B240" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C240" s="13" t="s">
+        <v>711</v>
+      </c>
+      <c r="D240" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="E240" s="31" t="s">
         <v>713</v>
       </c>
-      <c r="D240" s="14" t="s">
+      <c r="F240" s="3" t="s">
         <v>714</v>
-      </c>
-      <c r="E240" s="31" t="s">
-        <v>715</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>716</v>
       </c>
       <c r="G240" s="4"/>
       <c r="H240" s="4"/>
@@ -24872,10 +24840,10 @@
       <c r="A241" s="49"/>
       <c r="B241" s="1"/>
       <c r="C241" s="13" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E241" s="31"/>
       <c r="F241" s="3"/>
@@ -24903,13 +24871,13 @@
     <row r="242" spans="1:26" ht="30.6">
       <c r="A242" s="49"/>
       <c r="B242" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="D242" s="11" t="s">
         <v>719</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>721</v>
       </c>
       <c r="E242" s="31"/>
       <c r="F242" s="3"/>
@@ -24937,13 +24905,13 @@
     <row r="243" spans="1:26" ht="28.8">
       <c r="A243" s="49"/>
       <c r="B243" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="C243" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="D243" s="14" t="s">
         <v>722</v>
-      </c>
-      <c r="C243" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="D243" s="14" t="s">
-        <v>724</v>
       </c>
       <c r="E243" s="31"/>
       <c r="F243" s="3"/>
@@ -24972,16 +24940,16 @@
       <c r="A244" s="49"/>
       <c r="B244" s="1"/>
       <c r="C244" s="23" t="s">
+        <v>723</v>
+      </c>
+      <c r="D244" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="E244" s="37" t="s">
         <v>725</v>
       </c>
-      <c r="D244" s="14" t="s">
+      <c r="F244" s="3" t="s">
         <v>726</v>
-      </c>
-      <c r="E244" s="37" t="s">
-        <v>727</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>728</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4"/>
@@ -25008,10 +24976,10 @@
       <c r="A245" s="49"/>
       <c r="B245" s="1"/>
       <c r="C245" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="E245" s="31"/>
       <c r="F245" s="3"/>
@@ -25039,13 +25007,13 @@
     <row r="246" spans="1:26">
       <c r="A246" s="49"/>
       <c r="B246" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="C246" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="D246" s="14" t="s">
         <v>731</v>
-      </c>
-      <c r="C246" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="D246" s="14" t="s">
-        <v>733</v>
       </c>
       <c r="E246" s="31"/>
       <c r="F246" s="3"/>
@@ -25074,10 +25042,10 @@
       <c r="A247" s="49"/>
       <c r="B247" s="1"/>
       <c r="C247" s="13" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E247" s="31"/>
       <c r="F247" s="3"/>
@@ -25106,10 +25074,10 @@
       <c r="A248" s="49"/>
       <c r="B248" s="1"/>
       <c r="C248" s="13" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D248" s="14" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E248" s="31"/>
       <c r="F248" s="3"/>
@@ -25137,13 +25105,13 @@
     <row r="249" spans="1:26">
       <c r="A249" s="49"/>
       <c r="B249" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C249" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="D249" s="14" t="s">
         <v>738</v>
-      </c>
-      <c r="C249" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="D249" s="14" t="s">
-        <v>740</v>
       </c>
       <c r="E249" s="31"/>
       <c r="F249" s="3"/>
@@ -25172,10 +25140,10 @@
       <c r="A250" s="49"/>
       <c r="B250" s="1"/>
       <c r="C250" s="13" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D250" s="11" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E250" s="31"/>
       <c r="F250" s="3"/>
@@ -25204,10 +25172,10 @@
       <c r="A251" s="49"/>
       <c r="B251" s="1"/>
       <c r="C251" s="13" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D251" s="14" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E251" s="31"/>
       <c r="F251" s="3"/>
@@ -25235,13 +25203,13 @@
     <row r="252" spans="1:26">
       <c r="A252" s="49"/>
       <c r="B252" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="C252" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D252" s="14" t="s">
         <v>745</v>
-      </c>
-      <c r="C252" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="D252" s="14" t="s">
-        <v>747</v>
       </c>
       <c r="E252" s="31"/>
       <c r="F252" s="3"/>
@@ -25270,10 +25238,10 @@
       <c r="A253" s="49"/>
       <c r="B253" s="1"/>
       <c r="C253" s="13" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D253" s="14" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E253" s="31"/>
       <c r="F253" s="3"/>
@@ -25302,16 +25270,16 @@
       <c r="A254" s="49"/>
       <c r="B254" s="1"/>
       <c r="C254" s="13" t="s">
+        <v>748</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="E254" s="31" t="s">
         <v>750</v>
       </c>
-      <c r="D254" s="14" t="s">
+      <c r="F254" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="E254" s="31" t="s">
-        <v>752</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>753</v>
       </c>
       <c r="G254" s="4"/>
       <c r="H254" s="4"/>
@@ -25337,11 +25305,11 @@
     <row r="255" spans="1:26">
       <c r="A255" s="49"/>
       <c r="B255" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="14" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E255" s="31"/>
       <c r="F255" s="3"/>
@@ -25370,16 +25338,16 @@
       <c r="A256" s="49"/>
       <c r="B256" s="1"/>
       <c r="C256" s="13" t="s">
+        <v>754</v>
+      </c>
+      <c r="D256" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="E256" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="D256" s="14" t="s">
+      <c r="F256" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="E256" s="31" t="s">
-        <v>758</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>759</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4"/>
@@ -25406,16 +25374,16 @@
       <c r="A257" s="49"/>
       <c r="B257" s="1"/>
       <c r="C257" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="D257" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="E257" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="D257" s="14" t="s">
+      <c r="F257" s="3" t="s">
         <v>761</v>
-      </c>
-      <c r="E257" s="31" t="s">
-        <v>762</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>763</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4"/>
@@ -25441,13 +25409,13 @@
     <row r="258" spans="1:26">
       <c r="A258" s="49"/>
       <c r="B258" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="D258" s="14" t="s">
         <v>764</v>
-      </c>
-      <c r="C258" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="D258" s="14" t="s">
-        <v>766</v>
       </c>
       <c r="E258" s="31"/>
       <c r="F258" s="3"/>
@@ -25476,10 +25444,10 @@
       <c r="A259" s="49"/>
       <c r="B259" s="1"/>
       <c r="C259" s="13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E259" s="31"/>
       <c r="F259" s="3"/>
@@ -25508,10 +25476,10 @@
       <c r="A260" s="49"/>
       <c r="B260" s="1"/>
       <c r="C260" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E260" s="31"/>
       <c r="F260" s="3"/>
@@ -25539,13 +25507,13 @@
     <row r="261" spans="1:26">
       <c r="A261" s="49"/>
       <c r="B261" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C261" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="D261" s="14" t="s">
         <v>771</v>
-      </c>
-      <c r="C261" s="13" t="s">
-        <v>772</v>
-      </c>
-      <c r="D261" s="14" t="s">
-        <v>773</v>
       </c>
       <c r="E261" s="31"/>
       <c r="F261" s="3"/>
@@ -25574,10 +25542,10 @@
       <c r="A262" s="49"/>
       <c r="B262" s="1"/>
       <c r="C262" s="13" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="E262" s="31"/>
       <c r="F262" s="3"/>
@@ -25605,13 +25573,13 @@
     <row r="263" spans="1:26" ht="20.399999999999999">
       <c r="A263" s="49"/>
       <c r="B263" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="D263" s="14" t="s">
         <v>776</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>777</v>
-      </c>
-      <c r="D263" s="14" t="s">
-        <v>778</v>
       </c>
       <c r="E263" s="31"/>
       <c r="F263" s="3"/>
@@ -25640,10 +25608,10 @@
       <c r="A264" s="49"/>
       <c r="B264" s="1"/>
       <c r="C264" s="13" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E264" s="31"/>
       <c r="F264" s="3"/>
@@ -25671,13 +25639,13 @@
     <row r="265" spans="1:26" ht="28.8">
       <c r="A265" s="49"/>
       <c r="B265" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C265" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D265" s="14" t="s">
         <v>781</v>
-      </c>
-      <c r="C265" s="10" t="s">
-        <v>782</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>783</v>
       </c>
       <c r="E265" s="31"/>
       <c r="F265" s="3"/>
@@ -25706,10 +25674,10 @@
       <c r="A266" s="49"/>
       <c r="B266" s="1"/>
       <c r="C266" s="13" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D266" s="14" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E266" s="31"/>
       <c r="F266" s="3"/>
@@ -25738,10 +25706,10 @@
       <c r="A267" s="49"/>
       <c r="B267" s="1"/>
       <c r="C267" s="13" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="E267" s="31"/>
       <c r="F267" s="3"/>
@@ -25769,19 +25737,19 @@
     <row r="268" spans="1:26">
       <c r="A268" s="49"/>
       <c r="B268" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="D268" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="C268" s="13" t="s">
+      <c r="E268" s="31" t="s">
         <v>789</v>
       </c>
-      <c r="D268" s="14" t="s">
+      <c r="F268" s="44" t="s">
         <v>790</v>
-      </c>
-      <c r="E268" s="31" t="s">
-        <v>791</v>
-      </c>
-      <c r="F268" s="44" t="s">
-        <v>792</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="4"/>
@@ -25808,10 +25776,10 @@
       <c r="A269" s="49"/>
       <c r="B269" s="1"/>
       <c r="C269" s="13" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D269" s="14" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E269" s="31"/>
       <c r="F269" s="3"/>
@@ -25840,10 +25808,10 @@
       <c r="A270" s="49"/>
       <c r="B270" s="1"/>
       <c r="C270" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D270" s="14" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="E270" s="31"/>
       <c r="F270" s="3"/>
@@ -25871,13 +25839,13 @@
     <row r="271" spans="1:26" ht="28.8">
       <c r="A271" s="49"/>
       <c r="B271" s="12" t="s">
+        <v>795</v>
+      </c>
+      <c r="C271" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D271" s="14" t="s">
         <v>797</v>
-      </c>
-      <c r="C271" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="D271" s="14" t="s">
-        <v>799</v>
       </c>
       <c r="E271" s="31"/>
       <c r="F271" s="3"/>
@@ -25906,16 +25874,16 @@
       <c r="A272" s="49"/>
       <c r="B272" s="1"/>
       <c r="C272" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="D272" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="E272" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="D272" s="14" t="s">
+      <c r="F272" s="3" t="s">
         <v>801</v>
-      </c>
-      <c r="E272" s="31" t="s">
-        <v>802</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>803</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -25942,10 +25910,10 @@
       <c r="A273" s="49"/>
       <c r="B273" s="1"/>
       <c r="C273" s="13" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D273" s="14" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E273" s="31"/>
       <c r="F273" s="3"/>
@@ -25973,13 +25941,13 @@
     <row r="274" spans="1:26" ht="43.2">
       <c r="A274" s="49"/>
       <c r="B274" s="12" t="s">
+        <v>804</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>805</v>
+      </c>
+      <c r="D274" s="2" t="s">
         <v>806</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="E274" s="31"/>
       <c r="F274" s="3"/>
@@ -26008,10 +25976,10 @@
       <c r="A275" s="49"/>
       <c r="B275" s="1"/>
       <c r="C275" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D275" s="14" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E275" s="31"/>
       <c r="F275" s="3"/>
@@ -26040,10 +26008,10 @@
       <c r="A276" s="49"/>
       <c r="B276" s="1"/>
       <c r="C276" s="13" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D276" s="14" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E276" s="31"/>
       <c r="F276" s="3"/>
@@ -26071,13 +26039,13 @@
     <row r="277" spans="1:26" ht="78">
       <c r="A277" s="49"/>
       <c r="B277" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="C277" s="13" t="s">
+        <v>812</v>
+      </c>
+      <c r="D277" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="C277" s="13" t="s">
-        <v>814</v>
-      </c>
-      <c r="D277" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="E277" s="31"/>
       <c r="F277" s="3"/>
@@ -26106,10 +26074,10 @@
       <c r="A278" s="49"/>
       <c r="B278" s="1"/>
       <c r="C278" s="13" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D278" s="14" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E278" s="31"/>
       <c r="F278" s="3"/>
@@ -26137,13 +26105,13 @@
     <row r="279" spans="1:26" ht="57.6">
       <c r="A279" s="49"/>
       <c r="B279" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="C279" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="D279" s="11" t="s">
         <v>818</v>
-      </c>
-      <c r="C279" s="10" t="s">
-        <v>819</v>
-      </c>
-      <c r="D279" s="11" t="s">
-        <v>820</v>
       </c>
       <c r="E279" s="31"/>
       <c r="F279" s="3"/>
@@ -26172,16 +26140,16 @@
       <c r="A280" s="49"/>
       <c r="B280" s="1"/>
       <c r="C280" s="13" t="s">
+        <v>819</v>
+      </c>
+      <c r="D280" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="E280" s="36" t="s">
         <v>821</v>
       </c>
-      <c r="D280" s="14" t="s">
+      <c r="F280" s="44" t="s">
         <v>822</v>
-      </c>
-      <c r="E280" s="36" t="s">
-        <v>823</v>
-      </c>
-      <c r="F280" s="44" t="s">
-        <v>824</v>
       </c>
       <c r="G280" s="4"/>
       <c r="H280" s="4"/>
@@ -26208,10 +26176,10 @@
       <c r="A281" s="49"/>
       <c r="B281" s="1"/>
       <c r="C281" s="13" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D281" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E281" s="38"/>
       <c r="F281" s="3"/>
@@ -26239,13 +26207,13 @@
     <row r="282" spans="1:26" ht="16.8">
       <c r="A282" s="49"/>
       <c r="B282" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="D282" s="14" t="s">
         <v>827</v>
-      </c>
-      <c r="C282" s="13" t="s">
-        <v>828</v>
-      </c>
-      <c r="D282" s="14" t="s">
-        <v>829</v>
       </c>
       <c r="E282" s="39"/>
       <c r="F282" s="3"/>
@@ -26274,10 +26242,10 @@
       <c r="A283" s="49"/>
       <c r="B283" s="1"/>
       <c r="C283" s="13" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D283" s="14" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E283" s="31"/>
       <c r="F283" s="3"/>
@@ -26305,13 +26273,13 @@
     <row r="284" spans="1:26">
       <c r="A284" s="49"/>
       <c r="B284" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="C284" s="13" t="s">
+        <v>831</v>
+      </c>
+      <c r="D284" s="14" t="s">
         <v>832</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>833</v>
-      </c>
-      <c r="D284" s="14" t="s">
-        <v>834</v>
       </c>
       <c r="E284" s="31"/>
       <c r="F284" s="3"/>
@@ -26340,10 +26308,10 @@
       <c r="A285" s="49"/>
       <c r="B285" s="1"/>
       <c r="C285" s="13" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D285" s="14" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E285" s="31"/>
       <c r="F285" s="3"/>
@@ -26372,16 +26340,16 @@
       <c r="A286" s="49"/>
       <c r="B286" s="1"/>
       <c r="C286" s="13" t="s">
+        <v>835</v>
+      </c>
+      <c r="D286" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="E286" s="36" t="s">
         <v>837</v>
       </c>
-      <c r="D286" s="14" t="s">
+      <c r="F286" s="44" t="s">
         <v>838</v>
-      </c>
-      <c r="E286" s="36" t="s">
-        <v>839</v>
-      </c>
-      <c r="F286" s="44" t="s">
-        <v>840</v>
       </c>
       <c r="G286" s="4"/>
       <c r="H286" s="4"/>
@@ -26407,13 +26375,13 @@
     <row r="287" spans="1:26">
       <c r="A287" s="49"/>
       <c r="B287" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="C287" s="13" t="s">
+        <v>840</v>
+      </c>
+      <c r="D287" s="14" t="s">
         <v>841</v>
-      </c>
-      <c r="C287" s="13" t="s">
-        <v>842</v>
-      </c>
-      <c r="D287" s="14" t="s">
-        <v>843</v>
       </c>
       <c r="E287" s="31"/>
       <c r="F287" s="3"/>
@@ -26442,16 +26410,16 @@
       <c r="A288" s="49"/>
       <c r="B288" s="1"/>
       <c r="C288" s="13" t="s">
+        <v>842</v>
+      </c>
+      <c r="D288" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="E288" s="36" t="s">
         <v>844</v>
       </c>
-      <c r="D288" s="14" t="s">
+      <c r="F288" s="44" t="s">
         <v>845</v>
-      </c>
-      <c r="E288" s="36" t="s">
-        <v>846</v>
-      </c>
-      <c r="F288" s="44" t="s">
-        <v>847</v>
       </c>
       <c r="G288" s="4"/>
       <c r="H288" s="4"/>
@@ -26478,10 +26446,10 @@
       <c r="A289" s="49"/>
       <c r="B289" s="1"/>
       <c r="C289" s="13" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E289" s="31"/>
       <c r="F289" s="3"/>
@@ -26509,19 +26477,19 @@
     <row r="290" spans="1:26" ht="16.8">
       <c r="A290" s="49"/>
       <c r="B290" s="12" t="s">
+        <v>848</v>
+      </c>
+      <c r="C290" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="D290" s="14" t="s">
         <v>850</v>
       </c>
-      <c r="C290" s="13" t="s">
+      <c r="E290" s="36" t="s">
         <v>851</v>
       </c>
-      <c r="D290" s="14" t="s">
+      <c r="F290" s="44" t="s">
         <v>852</v>
-      </c>
-      <c r="E290" s="36" t="s">
-        <v>853</v>
-      </c>
-      <c r="F290" s="44" t="s">
-        <v>854</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
@@ -26548,10 +26516,10 @@
       <c r="A291" s="49"/>
       <c r="B291" s="1"/>
       <c r="C291" s="13" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D291" s="14" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E291" s="31"/>
       <c r="F291" s="3"/>
@@ -26579,13 +26547,13 @@
     <row r="292" spans="1:26">
       <c r="A292" s="49"/>
       <c r="B292" s="12" t="s">
+        <v>855</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="D292" s="14" t="s">
         <v>857</v>
-      </c>
-      <c r="C292" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="D292" s="14" t="s">
-        <v>859</v>
       </c>
       <c r="E292" s="31"/>
       <c r="F292" s="3"/>
@@ -26614,10 +26582,10 @@
       <c r="A293" s="49"/>
       <c r="B293" s="1"/>
       <c r="C293" s="13" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E293" s="31"/>
       <c r="F293" s="3"/>
@@ -26646,10 +26614,10 @@
       <c r="A294" s="49"/>
       <c r="B294" s="1"/>
       <c r="C294" s="13" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E294" s="31"/>
       <c r="F294" s="3"/>
@@ -26677,13 +26645,13 @@
     <row r="295" spans="1:26" ht="31.2">
       <c r="A295" s="49"/>
       <c r="B295" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C295" s="10" t="s">
+        <v>863</v>
+      </c>
+      <c r="D295" s="2" t="s">
         <v>864</v>
-      </c>
-      <c r="C295" s="10" t="s">
-        <v>865</v>
-      </c>
-      <c r="D295" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="E295" s="31"/>
       <c r="F295" s="3"/>
@@ -26712,10 +26680,10 @@
       <c r="A296" s="49"/>
       <c r="B296" s="1"/>
       <c r="C296" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D296" s="14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E296" s="31"/>
       <c r="F296" s="3"/>
@@ -26744,10 +26712,10 @@
       <c r="A297" s="49"/>
       <c r="B297" s="1"/>
       <c r="C297" s="13" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D297" s="14" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E297" s="31"/>
       <c r="F297" s="3"/>
@@ -26775,13 +26743,13 @@
     <row r="298" spans="1:26">
       <c r="A298" s="49"/>
       <c r="B298" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>870</v>
+      </c>
+      <c r="D298" s="14" t="s">
         <v>871</v>
-      </c>
-      <c r="C298" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="D298" s="14" t="s">
-        <v>873</v>
       </c>
       <c r="E298" s="31"/>
       <c r="F298" s="3"/>
@@ -26810,10 +26778,10 @@
       <c r="A299" s="49"/>
       <c r="B299" s="1"/>
       <c r="C299" s="13" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D299" s="14" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E299" s="31"/>
       <c r="F299" s="3"/>
@@ -26841,13 +26809,13 @@
     <row r="300" spans="1:26" ht="20.399999999999999">
       <c r="A300" s="49"/>
       <c r="B300" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C300" s="13" t="s">
+        <v>875</v>
+      </c>
+      <c r="D300" s="14" t="s">
         <v>876</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>877</v>
-      </c>
-      <c r="D300" s="14" t="s">
-        <v>878</v>
       </c>
       <c r="E300" s="31"/>
       <c r="F300" s="3"/>
@@ -26876,10 +26844,10 @@
       <c r="A301" s="49"/>
       <c r="B301" s="1"/>
       <c r="C301" s="13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D301" s="14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E301" s="31"/>
       <c r="F301" s="3"/>
@@ -26907,13 +26875,13 @@
     <row r="302" spans="1:26">
       <c r="A302" s="49"/>
       <c r="B302" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C302" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="D302" s="14" t="s">
         <v>881</v>
-      </c>
-      <c r="C302" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="D302" s="14" t="s">
-        <v>883</v>
       </c>
       <c r="E302" s="31"/>
       <c r="F302" s="3"/>
@@ -26942,10 +26910,10 @@
       <c r="A303" s="49"/>
       <c r="B303" s="1"/>
       <c r="C303" s="13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E303" s="31"/>
       <c r="F303" s="3"/>
@@ -26974,10 +26942,10 @@
       <c r="A304" s="49"/>
       <c r="B304" s="1"/>
       <c r="C304" s="13" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E304" s="31"/>
       <c r="F304" s="3"/>
@@ -27005,13 +26973,13 @@
     <row r="305" spans="1:26">
       <c r="A305" s="49"/>
       <c r="B305" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="C305" s="13" t="s">
+        <v>887</v>
+      </c>
+      <c r="D305" s="14" t="s">
         <v>888</v>
-      </c>
-      <c r="C305" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="D305" s="14" t="s">
-        <v>890</v>
       </c>
       <c r="E305" s="31"/>
       <c r="F305" s="3"/>
@@ -27040,10 +27008,10 @@
       <c r="A306" s="49"/>
       <c r="B306" s="1"/>
       <c r="C306" s="13" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E306" s="31"/>
       <c r="F306" s="3"/>
@@ -27072,10 +27040,10 @@
       <c r="A307" s="49"/>
       <c r="B307" s="1"/>
       <c r="C307" s="13" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E307" s="31"/>
       <c r="F307" s="3"/>
@@ -27103,13 +27071,13 @@
     <row r="308" spans="1:26">
       <c r="A308" s="49"/>
       <c r="B308" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>894</v>
+      </c>
+      <c r="D308" s="14" t="s">
         <v>895</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>896</v>
-      </c>
-      <c r="D308" s="14" t="s">
-        <v>897</v>
       </c>
       <c r="E308" s="31"/>
       <c r="F308" s="3"/>
@@ -27138,10 +27106,10 @@
       <c r="A309" s="49"/>
       <c r="B309" s="1"/>
       <c r="C309" s="13" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E309" s="31"/>
       <c r="F309" s="3"/>
@@ -27170,10 +27138,10 @@
       <c r="A310" s="49"/>
       <c r="B310" s="1"/>
       <c r="C310" s="13" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="E310" s="31"/>
       <c r="F310" s="3"/>
@@ -27201,13 +27169,13 @@
     <row r="311" spans="1:26">
       <c r="A311" s="49"/>
       <c r="B311" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="C311" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="D311" s="14" t="s">
         <v>902</v>
-      </c>
-      <c r="C311" s="6" t="s">
-        <v>903</v>
-      </c>
-      <c r="D311" s="14" t="s">
-        <v>904</v>
       </c>
       <c r="E311" s="31"/>
       <c r="F311" s="3"/>
@@ -27236,10 +27204,10 @@
       <c r="A312" s="49"/>
       <c r="B312" s="1"/>
       <c r="C312" s="13" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E312" s="31"/>
       <c r="F312" s="3"/>
@@ -27268,10 +27236,10 @@
       <c r="A313" s="49"/>
       <c r="B313" s="1"/>
       <c r="C313" s="13" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E313" s="31"/>
       <c r="F313" s="3"/>
@@ -27299,13 +27267,13 @@
     <row r="314" spans="1:26">
       <c r="A314" s="49"/>
       <c r="B314" s="12" t="s">
+        <v>907</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="D314" s="14" t="s">
         <v>909</v>
-      </c>
-      <c r="C314" s="13" t="s">
-        <v>910</v>
-      </c>
-      <c r="D314" s="14" t="s">
-        <v>911</v>
       </c>
       <c r="E314" s="31"/>
       <c r="F314" s="3"/>
@@ -27334,10 +27302,10 @@
       <c r="A315" s="49"/>
       <c r="B315" s="1"/>
       <c r="C315" s="13" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="D315" s="11" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E315" s="31"/>
       <c r="F315" s="3"/>
@@ -27365,13 +27333,13 @@
     <row r="316" spans="1:26">
       <c r="A316" s="49"/>
       <c r="B316" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>913</v>
+      </c>
+      <c r="D316" s="14" t="s">
         <v>914</v>
-      </c>
-      <c r="C316" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="D316" s="14" t="s">
-        <v>916</v>
       </c>
       <c r="E316" s="31"/>
       <c r="F316" s="3"/>
@@ -27400,10 +27368,10 @@
       <c r="A317" s="49"/>
       <c r="B317" s="1"/>
       <c r="C317" s="13" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E317" s="31"/>
       <c r="F317" s="3"/>
@@ -27431,13 +27399,13 @@
     <row r="318" spans="1:26">
       <c r="A318" s="49"/>
       <c r="B318" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>918</v>
+      </c>
+      <c r="D318" s="11" t="s">
         <v>919</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>920</v>
-      </c>
-      <c r="D318" s="11" t="s">
-        <v>921</v>
       </c>
       <c r="E318" s="31"/>
       <c r="F318" s="3"/>
@@ -27466,10 +27434,10 @@
       <c r="A319" s="49"/>
       <c r="B319" s="1"/>
       <c r="C319" s="9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="D319" s="11" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E319" s="31"/>
       <c r="F319" s="3"/>
@@ -27498,10 +27466,10 @@
       <c r="A320" s="49"/>
       <c r="B320" s="1"/>
       <c r="C320" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D320" s="11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E320" s="31"/>
       <c r="F320" s="3"/>
@@ -27529,13 +27497,13 @@
     <row r="321" spans="1:26">
       <c r="A321" s="49"/>
       <c r="B321" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D321" s="11" t="s">
         <v>926</v>
-      </c>
-      <c r="C321" s="9" t="s">
-        <v>927</v>
-      </c>
-      <c r="D321" s="11" t="s">
-        <v>928</v>
       </c>
       <c r="E321" s="31"/>
       <c r="F321" s="3"/>
@@ -27564,10 +27532,10 @@
       <c r="A322" s="49"/>
       <c r="B322" s="1"/>
       <c r="C322" s="9" t="s">
+        <v>925</v>
+      </c>
+      <c r="D322" s="11" t="s">
         <v>927</v>
-      </c>
-      <c r="D322" s="11" t="s">
-        <v>929</v>
       </c>
       <c r="E322" s="31"/>
       <c r="F322" s="3"/>
@@ -27595,13 +27563,13 @@
     <row r="323" spans="1:26" ht="20.399999999999999">
       <c r="A323" s="49"/>
       <c r="B323" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="D323" s="11" t="s">
         <v>930</v>
-      </c>
-      <c r="C323" s="9" t="s">
-        <v>931</v>
-      </c>
-      <c r="D323" s="11" t="s">
-        <v>932</v>
       </c>
       <c r="E323" s="31"/>
       <c r="F323" s="3"/>
@@ -27630,16 +27598,16 @@
       <c r="A324" s="49"/>
       <c r="B324" s="1"/>
       <c r="C324" s="9" t="s">
+        <v>931</v>
+      </c>
+      <c r="D324" s="11" t="s">
+        <v>932</v>
+      </c>
+      <c r="E324" s="31" t="s">
         <v>933</v>
       </c>
-      <c r="D324" s="11" t="s">
+      <c r="F324" s="44" t="s">
         <v>934</v>
-      </c>
-      <c r="E324" s="31" t="s">
-        <v>935</v>
-      </c>
-      <c r="F324" s="44" t="s">
-        <v>936</v>
       </c>
       <c r="G324" s="4"/>
       <c r="H324" s="4"/>
@@ -27666,16 +27634,16 @@
       <c r="A325" s="49"/>
       <c r="B325" s="1"/>
       <c r="C325" s="9" t="s">
+        <v>935</v>
+      </c>
+      <c r="D325" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="E325" s="36" t="s">
         <v>937</v>
       </c>
-      <c r="D325" s="11" t="s">
+      <c r="F325" s="44" t="s">
         <v>938</v>
-      </c>
-      <c r="E325" s="36" t="s">
-        <v>939</v>
-      </c>
-      <c r="F325" s="44" t="s">
-        <v>940</v>
       </c>
       <c r="G325" s="4"/>
       <c r="H325" s="4"/>
@@ -27700,13 +27668,13 @@
     </row>
     <row r="326" spans="1:26">
       <c r="A326" s="52" t="s">
+        <v>939</v>
+      </c>
+      <c r="B326" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="C326" s="11" t="s">
         <v>941</v>
-      </c>
-      <c r="B326" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="C326" s="11" t="s">
-        <v>943</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="31"/>
@@ -27736,16 +27704,16 @@
       <c r="A327" s="49"/>
       <c r="B327" s="1"/>
       <c r="C327" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="D327" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="E327" s="34" t="s">
         <v>944</v>
       </c>
-      <c r="D327" s="11" t="s">
+      <c r="F327" s="26" t="s">
         <v>945</v>
-      </c>
-      <c r="E327" s="34" t="s">
-        <v>946</v>
-      </c>
-      <c r="F327" s="26" t="s">
-        <v>947</v>
       </c>
       <c r="G327" s="4"/>
       <c r="H327" s="4"/>
@@ -27772,10 +27740,10 @@
       <c r="A328" s="49"/>
       <c r="B328" s="1"/>
       <c r="C328" s="9" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D328" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="E328" s="31"/>
       <c r="F328" s="3"/>
@@ -27803,13 +27771,13 @@
     <row r="329" spans="1:26">
       <c r="A329" s="49"/>
       <c r="B329" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="C329" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="D329" s="11" t="s">
         <v>950</v>
-      </c>
-      <c r="C329" s="9" t="s">
-        <v>951</v>
-      </c>
-      <c r="D329" s="11" t="s">
-        <v>952</v>
       </c>
       <c r="E329" s="31"/>
       <c r="F329" s="3"/>
@@ -27838,16 +27806,16 @@
       <c r="A330" s="49"/>
       <c r="B330" s="1"/>
       <c r="C330" s="9" t="s">
+        <v>951</v>
+      </c>
+      <c r="D330" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="E330" s="34" t="s">
         <v>953</v>
       </c>
-      <c r="D330" s="11" t="s">
+      <c r="F330" s="26" t="s">
         <v>954</v>
-      </c>
-      <c r="E330" s="34" t="s">
-        <v>955</v>
-      </c>
-      <c r="F330" s="26" t="s">
-        <v>956</v>
       </c>
       <c r="G330" s="4"/>
       <c r="H330" s="4"/>
@@ -27874,10 +27842,10 @@
       <c r="A331" s="49"/>
       <c r="B331" s="1"/>
       <c r="C331" s="9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D331" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="E331" s="31"/>
       <c r="F331" s="3"/>
@@ -27905,13 +27873,13 @@
     <row r="332" spans="1:26">
       <c r="A332" s="49"/>
       <c r="B332" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="D332" s="11" t="s">
         <v>959</v>
-      </c>
-      <c r="C332" s="9" t="s">
-        <v>960</v>
-      </c>
-      <c r="D332" s="11" t="s">
-        <v>961</v>
       </c>
       <c r="E332" s="31"/>
       <c r="F332" s="3"/>
@@ -27940,10 +27908,10 @@
       <c r="A333" s="49"/>
       <c r="B333" s="1"/>
       <c r="C333" s="9" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D333" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E333" s="31"/>
       <c r="F333" s="3"/>
@@ -27971,19 +27939,19 @@
     <row r="334" spans="1:26">
       <c r="A334" s="49"/>
       <c r="B334" s="5" t="s">
+        <v>962</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="D334" s="11" t="s">
         <v>964</v>
       </c>
-      <c r="C334" s="9" t="s">
+      <c r="E334" s="34" t="s">
         <v>965</v>
       </c>
-      <c r="D334" s="11" t="s">
+      <c r="F334" s="26" t="s">
         <v>966</v>
-      </c>
-      <c r="E334" s="34" t="s">
-        <v>967</v>
-      </c>
-      <c r="F334" s="26" t="s">
-        <v>968</v>
       </c>
       <c r="G334" s="4"/>
       <c r="H334" s="4"/>
@@ -28010,10 +27978,10 @@
       <c r="A335" s="49"/>
       <c r="B335" s="1"/>
       <c r="C335" s="9" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D335" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E335" s="31"/>
       <c r="F335" s="3"/>
@@ -28042,10 +28010,10 @@
       <c r="A336" s="49"/>
       <c r="B336" s="1"/>
       <c r="C336" s="9" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D336" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E336" s="31"/>
       <c r="F336" s="3"/>
@@ -28073,19 +28041,19 @@
     <row r="337" spans="1:26">
       <c r="A337" s="49"/>
       <c r="B337" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="C337" s="9" t="s">
+        <v>972</v>
+      </c>
+      <c r="D337" s="11" t="s">
         <v>973</v>
       </c>
-      <c r="C337" s="9" t="s">
+      <c r="E337" s="34" t="s">
         <v>974</v>
       </c>
-      <c r="D337" s="11" t="s">
+      <c r="F337" s="26" t="s">
         <v>975</v>
-      </c>
-      <c r="E337" s="34" t="s">
-        <v>976</v>
-      </c>
-      <c r="F337" s="26" t="s">
-        <v>977</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
@@ -28112,16 +28080,16 @@
       <c r="A338" s="49"/>
       <c r="B338" s="1"/>
       <c r="C338" s="9" t="s">
+        <v>976</v>
+      </c>
+      <c r="D338" s="11" t="s">
+        <v>977</v>
+      </c>
+      <c r="E338" s="34" t="s">
         <v>978</v>
       </c>
-      <c r="D338" s="11" t="s">
+      <c r="F338" s="26" t="s">
         <v>979</v>
-      </c>
-      <c r="E338" s="34" t="s">
-        <v>980</v>
-      </c>
-      <c r="F338" s="26" t="s">
-        <v>981</v>
       </c>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
@@ -28147,10 +28115,10 @@
     <row r="339" spans="1:26">
       <c r="A339" s="49"/>
       <c r="B339" s="5" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="31"/>
@@ -28180,16 +28148,16 @@
       <c r="A340" s="49"/>
       <c r="B340" s="1"/>
       <c r="C340" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="D340" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="E340" s="34" t="s">
         <v>984</v>
       </c>
-      <c r="D340" s="11" t="s">
+      <c r="F340" s="26" t="s">
         <v>985</v>
-      </c>
-      <c r="E340" s="34" t="s">
-        <v>986</v>
-      </c>
-      <c r="F340" s="26" t="s">
-        <v>987</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -28216,16 +28184,16 @@
       <c r="A341" s="49"/>
       <c r="B341" s="1"/>
       <c r="C341" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="D341" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="E341" s="34" t="s">
         <v>988</v>
       </c>
-      <c r="D341" s="11" t="s">
+      <c r="F341" s="26" t="s">
         <v>989</v>
-      </c>
-      <c r="E341" s="34" t="s">
-        <v>990</v>
-      </c>
-      <c r="F341" s="26" t="s">
-        <v>991</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
@@ -28251,10 +28219,10 @@
     <row r="342" spans="1:26">
       <c r="A342" s="49"/>
       <c r="B342" s="5" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C342" s="9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="31"/>
@@ -28284,7 +28252,7 @@
       <c r="A343" s="49"/>
       <c r="B343" s="1"/>
       <c r="C343" s="9" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="31"/>
@@ -28314,10 +28282,10 @@
       <c r="A344" s="49"/>
       <c r="B344" s="1"/>
       <c r="C344" s="9" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="D344" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E344" s="31"/>
       <c r="F344" s="3"/>
@@ -28345,19 +28313,19 @@
     <row r="345" spans="1:26" ht="17.399999999999999">
       <c r="A345" s="49"/>
       <c r="B345" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="C345" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="D345" s="11" t="s">
         <v>996</v>
       </c>
-      <c r="C345" s="9" t="s">
+      <c r="E345" s="40" t="s">
         <v>997</v>
       </c>
-      <c r="D345" s="11" t="s">
+      <c r="F345" s="40" t="s">
         <v>998</v>
-      </c>
-      <c r="E345" s="40" t="s">
-        <v>999</v>
-      </c>
-      <c r="F345" s="40" t="s">
-        <v>1000</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
@@ -28384,10 +28352,10 @@
       <c r="A346" s="49"/>
       <c r="B346" s="1"/>
       <c r="C346" s="9" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="D346" s="11" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="E346" s="31"/>
       <c r="F346" s="3"/>
@@ -28416,10 +28384,10 @@
       <c r="A347" s="49"/>
       <c r="B347" s="1"/>
       <c r="C347" s="9" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="D347" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="E347" s="31"/>
       <c r="F347" s="3"/>
@@ -28447,13 +28415,13 @@
     <row r="348" spans="1:26">
       <c r="A348" s="49"/>
       <c r="B348" s="5" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C348" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D348" s="11" t="s">
         <v>1005</v>
-      </c>
-      <c r="C348" s="9" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D348" s="11" t="s">
-        <v>1007</v>
       </c>
       <c r="E348" s="31"/>
       <c r="F348" s="3"/>
@@ -28482,10 +28450,10 @@
       <c r="A349" s="49"/>
       <c r="B349" s="1"/>
       <c r="C349" s="9" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D349" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E349" s="31"/>
       <c r="F349" s="3"/>
@@ -28513,19 +28481,19 @@
     <row r="350" spans="1:26" ht="17.399999999999999">
       <c r="A350" s="49"/>
       <c r="B350" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C350" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D350" s="11" t="s">
         <v>1010</v>
       </c>
-      <c r="C350" s="9" t="s">
+      <c r="E350" s="40" t="s">
         <v>1011</v>
       </c>
-      <c r="D350" s="11" t="s">
+      <c r="F350" s="40" t="s">
         <v>1012</v>
-      </c>
-      <c r="E350" s="40" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F350" s="40" t="s">
-        <v>1014</v>
       </c>
       <c r="G350" s="4"/>
       <c r="H350" s="4"/>
@@ -28552,10 +28520,10 @@
       <c r="A351" s="49"/>
       <c r="B351" s="1"/>
       <c r="C351" s="9" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D351" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="E351" s="31"/>
       <c r="F351" s="3"/>
@@ -28583,13 +28551,13 @@
     <row r="352" spans="1:26" ht="20.399999999999999">
       <c r="A352" s="49"/>
       <c r="B352" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C352" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D352" s="11" t="s">
         <v>1017</v>
-      </c>
-      <c r="C352" s="9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D352" s="11" t="s">
-        <v>1019</v>
       </c>
       <c r="E352" s="31"/>
       <c r="F352" s="3"/>
@@ -28618,10 +28586,10 @@
       <c r="A353" s="49"/>
       <c r="B353" s="1"/>
       <c r="C353" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D353" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E353" s="31"/>
       <c r="F353" s="3"/>
@@ -28650,10 +28618,10 @@
       <c r="A354" s="49"/>
       <c r="B354" s="1"/>
       <c r="C354" s="9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D354" s="11" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E354" s="31"/>
       <c r="F354" s="3"/>
@@ -28681,19 +28649,19 @@
     <row r="355" spans="1:26" ht="17.399999999999999">
       <c r="A355" s="49"/>
       <c r="B355" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D355" s="11" t="s">
         <v>1024</v>
       </c>
-      <c r="C355" s="9" t="s">
+      <c r="E355" s="34" t="s">
         <v>1025</v>
       </c>
-      <c r="D355" s="11" t="s">
+      <c r="F355" s="40" t="s">
         <v>1026</v>
-      </c>
-      <c r="E355" s="34" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F355" s="40" t="s">
-        <v>1028</v>
       </c>
       <c r="G355" s="4"/>
       <c r="H355" s="4"/>
@@ -28720,10 +28688,10 @@
       <c r="A356" s="49"/>
       <c r="B356" s="1"/>
       <c r="C356" s="9" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="D356" s="11" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E356" s="31"/>
       <c r="F356" s="3"/>
@@ -28751,19 +28719,19 @@
     <row r="357" spans="1:26" ht="17.399999999999999">
       <c r="A357" s="49"/>
       <c r="B357" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D357" s="11" t="s">
         <v>1031</v>
       </c>
-      <c r="C357" s="9" t="s">
+      <c r="E357" s="40" t="s">
         <v>1032</v>
       </c>
-      <c r="D357" s="11" t="s">
+      <c r="F357" s="26" t="s">
         <v>1033</v>
-      </c>
-      <c r="E357" s="40" t="s">
-        <v>1034</v>
-      </c>
-      <c r="F357" s="26" t="s">
-        <v>1035</v>
       </c>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
@@ -28790,10 +28758,10 @@
       <c r="A358" s="49"/>
       <c r="B358" s="1"/>
       <c r="C358" s="9" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D358" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E358" s="31"/>
       <c r="F358" s="3"/>
@@ -28822,10 +28790,10 @@
       <c r="A359" s="49"/>
       <c r="B359" s="1"/>
       <c r="C359" s="9" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="D359" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="E359" s="31"/>
       <c r="F359" s="3"/>
@@ -28853,13 +28821,13 @@
     <row r="360" spans="1:26">
       <c r="A360" s="49"/>
       <c r="B360" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D360" s="11" t="s">
         <v>1040</v>
-      </c>
-      <c r="C360" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D360" s="11" t="s">
-        <v>1042</v>
       </c>
       <c r="E360" s="31"/>
       <c r="F360" s="3"/>
@@ -28888,10 +28856,10 @@
       <c r="A361" s="49"/>
       <c r="B361" s="1"/>
       <c r="C361" s="9" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D361" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E361" s="31"/>
       <c r="F361" s="3"/>
@@ -28919,19 +28887,19 @@
     <row r="362" spans="1:26" ht="17.399999999999999">
       <c r="A362" s="49"/>
       <c r="B362" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D362" s="11" t="s">
         <v>1045</v>
       </c>
-      <c r="C362" s="9" t="s">
+      <c r="E362" s="40" t="s">
         <v>1046</v>
       </c>
-      <c r="D362" s="11" t="s">
+      <c r="F362" s="40" t="s">
         <v>1047</v>
-      </c>
-      <c r="E362" s="40" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F362" s="40" t="s">
-        <v>1049</v>
       </c>
       <c r="G362" s="4"/>
       <c r="H362" s="4"/>
@@ -28958,16 +28926,16 @@
       <c r="A363" s="49"/>
       <c r="B363" s="1"/>
       <c r="C363" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D363" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E363" s="34" t="s">
         <v>1050</v>
       </c>
-      <c r="D363" s="11" t="s">
+      <c r="F363" s="26" t="s">
         <v>1051</v>
-      </c>
-      <c r="E363" s="34" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F363" s="26" t="s">
-        <v>1053</v>
       </c>
       <c r="G363" s="4"/>
       <c r="H363" s="4"/>
@@ -28994,16 +28962,16 @@
       <c r="A364" s="49"/>
       <c r="B364" s="1"/>
       <c r="C364" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D364" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E364" s="34" t="s">
         <v>1054</v>
       </c>
-      <c r="D364" s="11" t="s">
+      <c r="F364" s="26" t="s">
         <v>1055</v>
-      </c>
-      <c r="E364" s="34" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F364" s="26" t="s">
-        <v>1057</v>
       </c>
       <c r="G364" s="4"/>
       <c r="H364" s="4"/>
@@ -29029,13 +28997,13 @@
     <row r="365" spans="1:26">
       <c r="A365" s="49"/>
       <c r="B365" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D365" s="11" t="s">
         <v>1058</v>
-      </c>
-      <c r="C365" s="9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D365" s="11" t="s">
-        <v>1060</v>
       </c>
       <c r="E365" s="31"/>
       <c r="F365" s="3"/>
@@ -29064,16 +29032,16 @@
       <c r="A366" s="49"/>
       <c r="B366" s="1"/>
       <c r="C366" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D366" s="11" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E366" s="40" t="s">
         <v>1061</v>
       </c>
-      <c r="D366" s="11" t="s">
+      <c r="F366" s="45" t="s">
         <v>1062</v>
-      </c>
-      <c r="E366" s="40" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F366" s="45" t="s">
-        <v>1064</v>
       </c>
       <c r="G366" s="4"/>
       <c r="H366" s="4"/>
@@ -29100,10 +29068,10 @@
       <c r="A367" s="49"/>
       <c r="B367" s="1"/>
       <c r="C367" s="9" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="D367" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E367" s="31"/>
       <c r="F367" s="3"/>
@@ -29131,13 +29099,13 @@
     <row r="368" spans="1:26">
       <c r="A368" s="49"/>
       <c r="B368" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D368" s="11" t="s">
         <v>1067</v>
-      </c>
-      <c r="C368" s="9" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D368" s="11" t="s">
-        <v>1069</v>
       </c>
       <c r="E368" s="31"/>
       <c r="F368" s="3"/>
@@ -29166,10 +29134,10 @@
       <c r="A369" s="49"/>
       <c r="B369" s="1"/>
       <c r="C369" s="9" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D369" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E369" s="31"/>
       <c r="F369" s="3"/>
@@ -29198,10 +29166,10 @@
       <c r="A370" s="49"/>
       <c r="B370" s="1"/>
       <c r="C370" s="9" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D370" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E370" s="31"/>
       <c r="F370" s="3"/>
@@ -29229,19 +29197,19 @@
     <row r="371" spans="1:26" ht="17.399999999999999">
       <c r="A371" s="49"/>
       <c r="B371" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D371" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="C371" s="9" t="s">
+      <c r="E371" s="40" t="s">
         <v>1075</v>
       </c>
-      <c r="D371" s="11" t="s">
+      <c r="F371" s="45" t="s">
         <v>1076</v>
-      </c>
-      <c r="E371" s="40" t="s">
-        <v>1077</v>
-      </c>
-      <c r="F371" s="45" t="s">
-        <v>1078</v>
       </c>
       <c r="G371" s="4"/>
       <c r="H371" s="4"/>
@@ -29268,10 +29236,10 @@
       <c r="A372" s="49"/>
       <c r="B372" s="1"/>
       <c r="C372" s="9" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D372" s="11" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E372" s="31"/>
       <c r="F372" s="3"/>
@@ -29300,10 +29268,10 @@
       <c r="A373" s="49"/>
       <c r="B373" s="1"/>
       <c r="C373" s="9" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D373" s="11" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E373" s="31"/>
       <c r="F373" s="3"/>
@@ -29331,13 +29299,13 @@
     <row r="374" spans="1:26" ht="17.399999999999999">
       <c r="A374" s="49"/>
       <c r="B374" s="5" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D374" s="11" t="s">
         <v>1083</v>
-      </c>
-      <c r="C374" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D374" s="11" t="s">
-        <v>1085</v>
       </c>
       <c r="E374" s="40"/>
       <c r="F374" s="45"/>
@@ -29366,10 +29334,10 @@
       <c r="A375" s="49"/>
       <c r="B375" s="1"/>
       <c r="C375" s="9" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D375" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="E375" s="31"/>
       <c r="F375" s="3"/>
@@ -29398,10 +29366,10 @@
       <c r="A376" s="49"/>
       <c r="B376" s="1"/>
       <c r="C376" s="9" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D376" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="E376" s="31"/>
       <c r="F376" s="3"/>
@@ -29429,19 +29397,19 @@
     <row r="377" spans="1:26" ht="17.399999999999999">
       <c r="A377" s="49"/>
       <c r="B377" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D377" s="11" t="s">
         <v>1090</v>
       </c>
-      <c r="C377" s="9" t="s">
+      <c r="E377" s="34" t="s">
         <v>1091</v>
       </c>
-      <c r="D377" s="11" t="s">
+      <c r="F377" s="40" t="s">
         <v>1092</v>
-      </c>
-      <c r="E377" s="34" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F377" s="40" t="s">
-        <v>1094</v>
       </c>
       <c r="G377" s="4"/>
       <c r="H377" s="4"/>
@@ -29468,16 +29436,16 @@
       <c r="A378" s="49"/>
       <c r="B378" s="1"/>
       <c r="C378" s="9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D378" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E378" s="34" t="s">
         <v>1095</v>
       </c>
-      <c r="D378" s="11" t="s">
+      <c r="F378" s="40" t="s">
         <v>1096</v>
-      </c>
-      <c r="E378" s="34" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F378" s="40" t="s">
-        <v>1098</v>
       </c>
       <c r="G378" s="4"/>
       <c r="H378" s="4"/>
@@ -29504,10 +29472,10 @@
       <c r="A379" s="49"/>
       <c r="B379" s="1"/>
       <c r="C379" s="9" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="D379" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E379" s="31"/>
       <c r="F379" s="3"/>
@@ -29535,13 +29503,13 @@
     <row r="380" spans="1:26">
       <c r="A380" s="49"/>
       <c r="B380" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C380" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D380" s="11" t="s">
         <v>1101</v>
-      </c>
-      <c r="C380" s="9" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D380" s="11" t="s">
-        <v>1103</v>
       </c>
       <c r="E380" s="34"/>
       <c r="F380" s="3"/>
@@ -29570,16 +29538,16 @@
       <c r="A381" s="49"/>
       <c r="B381" s="1"/>
       <c r="C381" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D381" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E381" s="40" t="s">
         <v>1104</v>
       </c>
-      <c r="D381" s="11" t="s">
+      <c r="F381" s="40" t="s">
         <v>1105</v>
-      </c>
-      <c r="E381" s="40" t="s">
-        <v>1106</v>
-      </c>
-      <c r="F381" s="40" t="s">
-        <v>1107</v>
       </c>
       <c r="G381" s="4"/>
       <c r="H381" s="4"/>
@@ -29606,10 +29574,10 @@
       <c r="A382" s="49"/>
       <c r="B382" s="1"/>
       <c r="C382" s="9" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D382" s="11" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="E382" s="31"/>
       <c r="F382" s="3"/>
@@ -29637,19 +29605,19 @@
     <row r="383" spans="1:26" ht="17.399999999999999">
       <c r="A383" s="49"/>
       <c r="B383" s="5" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C383" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D383" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="C383" s="9" t="s">
+      <c r="E383" s="34" t="s">
         <v>1111</v>
       </c>
-      <c r="D383" s="11" t="s">
+      <c r="F383" s="40" t="s">
         <v>1112</v>
-      </c>
-      <c r="E383" s="34" t="s">
-        <v>1113</v>
-      </c>
-      <c r="F383" s="40" t="s">
-        <v>1114</v>
       </c>
       <c r="G383" s="4"/>
       <c r="H383" s="4"/>
@@ -29676,10 +29644,10 @@
       <c r="A384" s="49"/>
       <c r="B384" s="1"/>
       <c r="C384" s="9" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D384" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E384" s="31"/>
       <c r="F384" s="3"/>
@@ -29708,16 +29676,16 @@
       <c r="A385" s="49"/>
       <c r="B385" s="1"/>
       <c r="C385" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D385" s="11" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E385" s="40" t="s">
         <v>1117</v>
       </c>
-      <c r="D385" s="11" t="s">
+      <c r="F385" s="40" t="s">
         <v>1118</v>
-      </c>
-      <c r="E385" s="40" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F385" s="40" t="s">
-        <v>1120</v>
       </c>
       <c r="G385" s="4"/>
       <c r="H385" s="4"/>
@@ -29743,13 +29711,13 @@
     <row r="386" spans="1:26">
       <c r="A386" s="49"/>
       <c r="B386" s="5" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C386" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D386" s="11" t="s">
         <v>1121</v>
-      </c>
-      <c r="C386" s="9" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D386" s="11" t="s">
-        <v>1123</v>
       </c>
       <c r="E386" s="31"/>
       <c r="F386" s="3"/>
@@ -29778,10 +29746,10 @@
       <c r="A387" s="49"/>
       <c r="B387" s="1"/>
       <c r="C387" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D387" s="11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E387" s="31"/>
       <c r="F387" s="3"/>
@@ -29810,10 +29778,10 @@
       <c r="A388" s="49"/>
       <c r="B388" s="1"/>
       <c r="C388" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E388" s="31"/>
       <c r="F388" s="3"/>
@@ -29841,13 +29809,13 @@
     <row r="389" spans="1:26">
       <c r="A389" s="49"/>
       <c r="B389" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D389" s="11" t="s">
         <v>1128</v>
-      </c>
-      <c r="C389" s="9" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D389" s="11" t="s">
-        <v>1130</v>
       </c>
       <c r="E389" s="31"/>
       <c r="F389" s="3"/>
@@ -29876,10 +29844,10 @@
       <c r="A390" s="49"/>
       <c r="B390" s="1"/>
       <c r="C390" s="9" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="E390" s="31"/>
       <c r="F390" s="3"/>
@@ -29908,7 +29876,7 @@
       <c r="A391" s="49"/>
       <c r="B391" s="1"/>
       <c r="C391" s="9" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="31"/>
@@ -29937,13 +29905,13 @@
     <row r="392" spans="1:26" ht="20.399999999999999">
       <c r="A392" s="49"/>
       <c r="B392" s="5" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C392" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D392" s="11" t="s">
         <v>1134</v>
-      </c>
-      <c r="C392" s="9" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D392" s="11" t="s">
-        <v>1136</v>
       </c>
       <c r="E392" s="31"/>
       <c r="F392" s="3"/>
@@ -29972,10 +29940,10 @@
       <c r="A393" s="49"/>
       <c r="B393" s="1"/>
       <c r="C393" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D393" s="11" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E393" s="31"/>
       <c r="F393" s="3"/>
@@ -30004,10 +29972,10 @@
       <c r="A394" s="49"/>
       <c r="B394" s="1"/>
       <c r="C394" s="9" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="D394" s="11" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="E394" s="31"/>
       <c r="F394" s="3"/>
@@ -30035,13 +30003,13 @@
     <row r="395" spans="1:26">
       <c r="A395" s="49"/>
       <c r="B395" s="5" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D395" s="11" t="s">
         <v>1141</v>
-      </c>
-      <c r="C395" s="9" t="s">
-        <v>1142</v>
-      </c>
-      <c r="D395" s="11" t="s">
-        <v>1143</v>
       </c>
       <c r="E395" s="31"/>
       <c r="F395" s="3"/>
@@ -30070,10 +30038,10 @@
       <c r="A396" s="49"/>
       <c r="B396" s="1"/>
       <c r="C396" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D396" s="11" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="E396" s="31"/>
       <c r="F396" s="3"/>
@@ -30102,7 +30070,7 @@
       <c r="A397" s="49"/>
       <c r="B397" s="1"/>
       <c r="C397" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="31"/>
@@ -30131,13 +30099,13 @@
     <row r="398" spans="1:26">
       <c r="A398" s="49"/>
       <c r="B398" s="5" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D398" s="11" t="s">
         <v>1146</v>
-      </c>
-      <c r="C398" s="9" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D398" s="11" t="s">
-        <v>1148</v>
       </c>
       <c r="E398" s="31"/>
       <c r="F398" s="3"/>
@@ -30166,10 +30134,10 @@
       <c r="A399" s="49"/>
       <c r="B399" s="1"/>
       <c r="C399" s="9" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="E399" s="31"/>
       <c r="F399" s="3"/>
@@ -30197,13 +30165,13 @@
     <row r="400" spans="1:26" ht="20.399999999999999">
       <c r="A400" s="49"/>
       <c r="B400" s="5" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C400" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D400" s="11" t="s">
         <v>1151</v>
-      </c>
-      <c r="C400" s="9" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D400" s="11" t="s">
-        <v>1153</v>
       </c>
       <c r="E400" s="31"/>
       <c r="F400" s="3"/>
@@ -30232,10 +30200,10 @@
       <c r="A401" s="49"/>
       <c r="B401" s="1"/>
       <c r="C401" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="D401" s="11" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E401" s="31"/>
       <c r="F401" s="3"/>
@@ -30264,10 +30232,10 @@
       <c r="A402" s="49"/>
       <c r="B402" s="1"/>
       <c r="C402" s="9" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="E402" s="31"/>
       <c r="F402" s="3"/>
@@ -30295,19 +30263,19 @@
     <row r="403" spans="1:26" ht="20.399999999999999">
       <c r="A403" s="49"/>
       <c r="B403" s="5" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C403" s="9" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D403" s="11" t="s">
         <v>1158</v>
       </c>
-      <c r="C403" s="9" t="s">
+      <c r="E403" s="40" t="s">
         <v>1159</v>
       </c>
-      <c r="D403" s="11" t="s">
+      <c r="F403" s="40" t="s">
         <v>1160</v>
-      </c>
-      <c r="E403" s="40" t="s">
-        <v>1161</v>
-      </c>
-      <c r="F403" s="40" t="s">
-        <v>1162</v>
       </c>
       <c r="G403" s="4"/>
       <c r="H403" s="4"/>
@@ -30334,10 +30302,10 @@
       <c r="A404" s="49"/>
       <c r="B404" s="1"/>
       <c r="C404" s="9" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D404" s="11" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="E404" s="31"/>
       <c r="F404" s="3"/>
@@ -30366,16 +30334,16 @@
       <c r="A405" s="49"/>
       <c r="B405" s="1"/>
       <c r="C405" s="9" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D405" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E405" s="40" t="s">
         <v>1163</v>
       </c>
-      <c r="D405" s="11" t="s">
+      <c r="F405" s="40" t="s">
         <v>1164</v>
-      </c>
-      <c r="E405" s="40" t="s">
-        <v>1165</v>
-      </c>
-      <c r="F405" s="40" t="s">
-        <v>1166</v>
       </c>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
@@ -30401,19 +30369,19 @@
     <row r="406" spans="1:26" ht="17.399999999999999">
       <c r="A406" s="49"/>
       <c r="B406" s="5" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C406" s="9" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D406" s="11" t="s">
         <v>1167</v>
       </c>
-      <c r="C406" s="9" t="s">
+      <c r="E406" s="40" t="s">
         <v>1168</v>
       </c>
-      <c r="D406" s="11" t="s">
+      <c r="F406" s="40" t="s">
         <v>1169</v>
-      </c>
-      <c r="E406" s="40" t="s">
-        <v>1170</v>
-      </c>
-      <c r="F406" s="40" t="s">
-        <v>1171</v>
       </c>
       <c r="G406" s="4"/>
       <c r="H406" s="4"/>
@@ -30440,10 +30408,10 @@
       <c r="A407" s="49"/>
       <c r="B407" s="1"/>
       <c r="C407" s="9" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="D407" s="11" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="E407" s="31"/>
       <c r="F407" s="3"/>
@@ -30472,10 +30440,10 @@
       <c r="A408" s="49"/>
       <c r="B408" s="1"/>
       <c r="C408" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="D408" s="11" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E408" s="31"/>
       <c r="F408" s="3"/>
@@ -30503,13 +30471,13 @@
     <row r="409" spans="1:26">
       <c r="A409" s="49"/>
       <c r="B409" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D409" s="11" t="s">
         <v>1176</v>
-      </c>
-      <c r="C409" s="9" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D409" s="11" t="s">
-        <v>1178</v>
       </c>
       <c r="E409" s="31"/>
       <c r="F409" s="3"/>
@@ -30538,16 +30506,16 @@
       <c r="A410" s="49"/>
       <c r="B410" s="1"/>
       <c r="C410" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D410" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E410" s="40" t="s">
         <v>1179</v>
       </c>
-      <c r="D410" s="11" t="s">
+      <c r="F410" s="40" t="s">
         <v>1180</v>
-      </c>
-      <c r="E410" s="40" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F410" s="40" t="s">
-        <v>1182</v>
       </c>
       <c r="G410" s="4"/>
       <c r="H410" s="4"/>
@@ -30574,10 +30542,10 @@
       <c r="A411" s="49"/>
       <c r="B411" s="1"/>
       <c r="C411" s="9" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D411" s="11" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="E411" s="31"/>
       <c r="F411" s="3"/>
@@ -30605,13 +30573,13 @@
     <row r="412" spans="1:26">
       <c r="A412" s="49"/>
       <c r="B412" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C412" s="9" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D412" s="11" t="s">
         <v>1185</v>
-      </c>
-      <c r="C412" s="9" t="s">
-        <v>1186</v>
-      </c>
-      <c r="D412" s="11" t="s">
-        <v>1187</v>
       </c>
       <c r="E412" s="31"/>
       <c r="F412" s="3"/>
@@ -30640,10 +30608,10 @@
       <c r="A413" s="49"/>
       <c r="B413" s="1"/>
       <c r="C413" s="9" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="D413" s="11" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E413" s="31"/>
       <c r="F413" s="3"/>
@@ -30671,13 +30639,13 @@
     <row r="414" spans="1:26">
       <c r="A414" s="49"/>
       <c r="B414" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C414" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D414" s="11" t="s">
         <v>1190</v>
-      </c>
-      <c r="C414" s="9" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D414" s="11" t="s">
-        <v>1192</v>
       </c>
       <c r="E414" s="31"/>
       <c r="F414" s="3"/>
@@ -30706,10 +30674,10 @@
       <c r="A415" s="49"/>
       <c r="B415" s="1"/>
       <c r="C415" s="9" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="D415" s="11" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="E415" s="31"/>
       <c r="F415" s="3"/>
@@ -30737,13 +30705,13 @@
     <row r="416" spans="1:26">
       <c r="A416" s="49"/>
       <c r="B416" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D416" s="11" t="s">
         <v>1195</v>
-      </c>
-      <c r="C416" s="9" t="s">
-        <v>1196</v>
-      </c>
-      <c r="D416" s="11" t="s">
-        <v>1197</v>
       </c>
       <c r="E416" s="31"/>
       <c r="F416" s="3"/>
@@ -30772,16 +30740,16 @@
       <c r="A417" s="49"/>
       <c r="B417" s="1"/>
       <c r="C417" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D417" s="11" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E417" s="34" t="s">
         <v>1198</v>
       </c>
-      <c r="D417" s="11" t="s">
+      <c r="F417" s="43" t="s">
         <v>1199</v>
-      </c>
-      <c r="E417" s="34" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F417" s="43" t="s">
-        <v>1201</v>
       </c>
       <c r="G417" s="4"/>
       <c r="H417" s="4"/>
@@ -30808,16 +30776,16 @@
       <c r="A418" s="49"/>
       <c r="B418" s="1"/>
       <c r="C418" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D418" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E418" s="40" t="s">
         <v>1202</v>
       </c>
-      <c r="D418" s="11" t="s">
+      <c r="F418" s="40" t="s">
         <v>1203</v>
-      </c>
-      <c r="E418" s="40" t="s">
-        <v>1204</v>
-      </c>
-      <c r="F418" s="40" t="s">
-        <v>1205</v>
       </c>
       <c r="G418" s="4"/>
       <c r="H418" s="4"/>
@@ -30843,19 +30811,19 @@
     <row r="419" spans="1:26" ht="17.399999999999999">
       <c r="A419" s="49"/>
       <c r="B419" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D419" s="11" t="s">
         <v>1206</v>
       </c>
-      <c r="C419" s="9" t="s">
+      <c r="E419" s="40" t="s">
         <v>1207</v>
       </c>
-      <c r="D419" s="11" t="s">
+      <c r="F419" s="40" t="s">
         <v>1208</v>
-      </c>
-      <c r="E419" s="40" t="s">
-        <v>1209</v>
-      </c>
-      <c r="F419" s="40" t="s">
-        <v>1210</v>
       </c>
       <c r="G419" s="4"/>
       <c r="H419" s="4"/>
@@ -30882,10 +30850,10 @@
       <c r="A420" s="49"/>
       <c r="B420" s="1"/>
       <c r="C420" s="9" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="D420" s="11" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="E420" s="31"/>
       <c r="F420" s="3"/>
@@ -30914,16 +30882,16 @@
       <c r="A421" s="49"/>
       <c r="B421" s="1"/>
       <c r="C421" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D421" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E421" s="40" t="s">
         <v>1213</v>
       </c>
-      <c r="D421" s="11" t="s">
+      <c r="F421" s="40" t="s">
         <v>1214</v>
-      </c>
-      <c r="E421" s="40" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F421" s="40" t="s">
-        <v>1216</v>
       </c>
       <c r="G421" s="4"/>
       <c r="H421" s="4"/>
@@ -30949,19 +30917,19 @@
     <row r="422" spans="1:26" ht="17.399999999999999">
       <c r="A422" s="49"/>
       <c r="B422" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D422" s="11" t="s">
         <v>1217</v>
       </c>
-      <c r="C422" s="9" t="s">
+      <c r="E422" s="40" t="s">
         <v>1218</v>
       </c>
-      <c r="D422" s="11" t="s">
+      <c r="F422" s="40" t="s">
         <v>1219</v>
-      </c>
-      <c r="E422" s="40" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F422" s="40" t="s">
-        <v>1221</v>
       </c>
       <c r="G422" s="4"/>
       <c r="H422" s="4"/>
@@ -30988,16 +30956,16 @@
       <c r="A423" s="49"/>
       <c r="B423" s="1"/>
       <c r="C423" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D423" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E423" s="40" t="s">
         <v>1222</v>
       </c>
-      <c r="D423" s="11" t="s">
+      <c r="F423" s="40" t="s">
         <v>1223</v>
-      </c>
-      <c r="E423" s="40" t="s">
-        <v>1224</v>
-      </c>
-      <c r="F423" s="40" t="s">
-        <v>1225</v>
       </c>
       <c r="G423" s="4"/>
       <c r="H423" s="4"/>
@@ -31024,10 +30992,10 @@
       <c r="A424" s="49"/>
       <c r="B424" s="1"/>
       <c r="C424" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="D424" s="11" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="E424" s="31"/>
       <c r="F424" s="3"/>
@@ -31055,13 +31023,13 @@
     <row r="425" spans="1:26">
       <c r="A425" s="49"/>
       <c r="B425" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D425" s="11" t="s">
         <v>1228</v>
-      </c>
-      <c r="C425" s="9" t="s">
-        <v>1229</v>
-      </c>
-      <c r="D425" s="11" t="s">
-        <v>1230</v>
       </c>
       <c r="E425" s="31"/>
       <c r="F425" s="3"/>
@@ -31088,14 +31056,14 @@
     </row>
     <row r="426" spans="1:26">
       <c r="A426" s="53" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B426" s="1"/>
       <c r="C426" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="D426" s="11" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="E426" s="31"/>
       <c r="F426" s="3"/>
@@ -31124,10 +31092,10 @@
       <c r="A427" s="49"/>
       <c r="B427" s="1"/>
       <c r="C427" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="D427" s="11" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="E427" s="31"/>
       <c r="F427" s="3"/>
@@ -31155,13 +31123,13 @@
     <row r="428" spans="1:26">
       <c r="A428" s="49"/>
       <c r="B428" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D428" s="11" t="s">
         <v>1236</v>
-      </c>
-      <c r="C428" s="9" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D428" s="11" t="s">
-        <v>1238</v>
       </c>
       <c r="E428" s="31"/>
       <c r="F428" s="3"/>
@@ -31190,10 +31158,10 @@
       <c r="A429" s="49"/>
       <c r="B429" s="1"/>
       <c r="C429" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="D429" s="11" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="E429" s="31"/>
       <c r="F429" s="3"/>
@@ -31222,10 +31190,10 @@
       <c r="A430" s="49"/>
       <c r="B430" s="1"/>
       <c r="C430" s="9" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="D430" s="11" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="E430" s="31"/>
       <c r="F430" s="3"/>
@@ -31253,13 +31221,13 @@
     <row r="431" spans="1:26">
       <c r="A431" s="49"/>
       <c r="B431" s="5" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C431" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D431" s="11" t="s">
         <v>1243</v>
-      </c>
-      <c r="C431" s="9" t="s">
-        <v>1244</v>
-      </c>
-      <c r="D431" s="11" t="s">
-        <v>1245</v>
       </c>
       <c r="E431" s="31"/>
       <c r="F431" s="3"/>
@@ -31288,10 +31256,10 @@
       <c r="A432" s="49"/>
       <c r="B432" s="1"/>
       <c r="C432" s="9" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="D432" s="11" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="E432" s="31"/>
       <c r="F432" s="3"/>
@@ -31319,13 +31287,13 @@
     <row r="433" spans="1:26">
       <c r="A433" s="49"/>
       <c r="B433" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C433" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D433" s="11" t="s">
         <v>1248</v>
-      </c>
-      <c r="C433" s="9" t="s">
-        <v>1249</v>
-      </c>
-      <c r="D433" s="11" t="s">
-        <v>1250</v>
       </c>
       <c r="E433" s="31"/>
       <c r="F433" s="3"/>
@@ -31354,10 +31322,10 @@
       <c r="A434" s="49"/>
       <c r="B434" s="1"/>
       <c r="C434" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="D434" s="11" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E434" s="31"/>
       <c r="F434" s="3"/>
@@ -31385,13 +31353,13 @@
     <row r="435" spans="1:26" ht="46.8">
       <c r="A435" s="49"/>
       <c r="B435" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C435" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D435" s="2" t="s">
         <v>1253</v>
-      </c>
-      <c r="C435" s="9" t="s">
-        <v>1254</v>
-      </c>
-      <c r="D435" s="2" t="s">
-        <v>1255</v>
       </c>
       <c r="E435" s="31"/>
       <c r="F435" s="3"/>
@@ -31420,10 +31388,10 @@
       <c r="A436" s="49"/>
       <c r="B436" s="1"/>
       <c r="C436" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="D436" s="11" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="E436" s="31"/>
       <c r="F436" s="3"/>
@@ -31452,10 +31420,10 @@
       <c r="A437" s="49"/>
       <c r="B437" s="1"/>
       <c r="C437" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D437" s="11" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E437" s="31"/>
       <c r="F437" s="3"/>
@@ -31483,13 +31451,13 @@
     <row r="438" spans="1:26" ht="20.399999999999999">
       <c r="A438" s="49"/>
       <c r="B438" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C438" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D438" s="11" t="s">
         <v>1260</v>
-      </c>
-      <c r="C438" s="9" t="s">
-        <v>1261</v>
-      </c>
-      <c r="D438" s="11" t="s">
-        <v>1262</v>
       </c>
       <c r="E438" s="31"/>
       <c r="F438" s="3"/>
@@ -31518,10 +31486,10 @@
       <c r="A439" s="49"/>
       <c r="B439" s="1"/>
       <c r="C439" s="9" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D439" s="11" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E439" s="31"/>
       <c r="F439" s="3"/>
@@ -31550,10 +31518,10 @@
       <c r="A440" s="49"/>
       <c r="B440" s="1"/>
       <c r="C440" s="9" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D440" s="11" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E440" s="31"/>
       <c r="F440" s="3"/>
@@ -31581,13 +31549,13 @@
     <row r="441" spans="1:26">
       <c r="A441" s="49"/>
       <c r="B441" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C441" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D441" s="11" t="s">
         <v>1267</v>
-      </c>
-      <c r="C441" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D441" s="11" t="s">
-        <v>1269</v>
       </c>
       <c r="E441" s="31"/>
       <c r="F441" s="3"/>
@@ -31616,10 +31584,10 @@
       <c r="A442" s="49"/>
       <c r="B442" s="1"/>
       <c r="C442" s="9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D442" s="11" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="E442" s="31"/>
       <c r="F442" s="3"/>
@@ -31648,10 +31616,10 @@
       <c r="A443" s="49"/>
       <c r="B443" s="1"/>
       <c r="C443" s="9" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="D443" s="11" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="E443" s="31"/>
       <c r="F443" s="3"/>
@@ -31679,13 +31647,13 @@
     <row r="444" spans="1:26">
       <c r="A444" s="49"/>
       <c r="B444" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C444" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D444" s="11" t="s">
         <v>1272</v>
-      </c>
-      <c r="C444" s="9" t="s">
-        <v>1273</v>
-      </c>
-      <c r="D444" s="11" t="s">
-        <v>1274</v>
       </c>
       <c r="E444" s="31"/>
       <c r="F444" s="3"/>
@@ -31714,10 +31682,10 @@
       <c r="A445" s="49"/>
       <c r="B445" s="1"/>
       <c r="C445" s="9" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="D445" s="11" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="E445" s="31"/>
       <c r="F445" s="3"/>
@@ -31745,13 +31713,13 @@
     <row r="446" spans="1:26">
       <c r="A446" s="49"/>
       <c r="B446" s="5" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C446" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D446" s="11" t="s">
         <v>1277</v>
-      </c>
-      <c r="C446" s="9" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D446" s="11" t="s">
-        <v>1279</v>
       </c>
       <c r="E446" s="31"/>
       <c r="F446" s="3"/>
@@ -31780,10 +31748,10 @@
       <c r="A447" s="49"/>
       <c r="B447" s="1"/>
       <c r="C447" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D447" s="11" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E447" s="31"/>
       <c r="F447" s="3"/>
@@ -31812,10 +31780,10 @@
       <c r="A448" s="49"/>
       <c r="B448" s="1"/>
       <c r="C448" s="9" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="D448" s="11" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="E448" s="31"/>
       <c r="F448" s="3"/>
@@ -31843,10 +31811,10 @@
     <row r="449" spans="1:26">
       <c r="A449" s="49"/>
       <c r="B449" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C449" s="9" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="31"/>
@@ -31876,10 +31844,10 @@
       <c r="A450" s="49"/>
       <c r="B450" s="1"/>
       <c r="C450" s="9" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D450" s="11" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="E450" s="31"/>
       <c r="F450" s="3"/>
@@ -31908,10 +31876,10 @@
       <c r="A451" s="49"/>
       <c r="B451" s="1"/>
       <c r="C451" s="9" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D451" s="11" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="E451" s="31"/>
       <c r="F451" s="3"/>
@@ -31939,13 +31907,13 @@
     <row r="452" spans="1:26">
       <c r="A452" s="49"/>
       <c r="B452" s="5" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C452" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D452" s="11" t="s">
         <v>1290</v>
-      </c>
-      <c r="C452" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="D452" s="11" t="s">
-        <v>1292</v>
       </c>
       <c r="E452" s="31"/>
       <c r="F452" s="3"/>
@@ -31974,10 +31942,10 @@
       <c r="A453" s="49"/>
       <c r="B453" s="1"/>
       <c r="C453" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="D453" s="11" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="E453" s="31"/>
       <c r="F453" s="3"/>
@@ -32005,13 +31973,13 @@
     <row r="454" spans="1:26">
       <c r="A454" s="49"/>
       <c r="B454" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C454" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D454" s="11" t="s">
         <v>1295</v>
-      </c>
-      <c r="C454" s="9" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D454" s="11" t="s">
-        <v>1297</v>
       </c>
       <c r="E454" s="31"/>
       <c r="F454" s="3"/>
@@ -32040,10 +32008,10 @@
       <c r="A455" s="49"/>
       <c r="B455" s="1"/>
       <c r="C455" s="9" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="D455" s="11" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="E455" s="31"/>
       <c r="F455" s="3"/>
@@ -32072,10 +32040,10 @@
       <c r="A456" s="49"/>
       <c r="B456" s="1"/>
       <c r="C456" s="9" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D456" s="11" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="E456" s="31"/>
       <c r="F456" s="3"/>
@@ -32103,13 +32071,13 @@
     <row r="457" spans="1:26">
       <c r="A457" s="49"/>
       <c r="B457" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C457" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D457" s="11" t="s">
         <v>1302</v>
-      </c>
-      <c r="C457" s="9" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D457" s="11" t="s">
-        <v>1304</v>
       </c>
       <c r="E457" s="31"/>
       <c r="F457" s="3"/>
@@ -32138,10 +32106,10 @@
       <c r="A458" s="49"/>
       <c r="B458" s="1"/>
       <c r="C458" s="9" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="D458" s="11" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="E458" s="31"/>
       <c r="F458" s="3"/>
@@ -32170,10 +32138,10 @@
       <c r="A459" s="49"/>
       <c r="B459" s="1"/>
       <c r="C459" s="9" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="D459" s="11" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="E459" s="31"/>
       <c r="F459" s="3"/>
@@ -32201,10 +32169,10 @@
     <row r="460" spans="1:26">
       <c r="A460" s="49"/>
       <c r="B460" s="1" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C460" s="9" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="31"/>
@@ -32234,10 +32202,10 @@
       <c r="A461" s="49"/>
       <c r="B461" s="1"/>
       <c r="C461" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="D461" s="11" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="E461" s="31"/>
       <c r="F461" s="3"/>
@@ -32266,10 +32234,10 @@
       <c r="A462" s="49"/>
       <c r="B462" s="1"/>
       <c r="C462" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="D462" s="11" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E462" s="31"/>
       <c r="F462" s="3"/>
@@ -32297,13 +32265,13 @@
     <row r="463" spans="1:26" ht="20.399999999999999">
       <c r="A463" s="49"/>
       <c r="B463" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D463" s="11" t="s">
         <v>1315</v>
-      </c>
-      <c r="C463" s="9" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D463" s="11" t="s">
-        <v>1317</v>
       </c>
       <c r="E463" s="31"/>
       <c r="F463" s="3"/>
@@ -32332,10 +32300,10 @@
       <c r="A464" s="49"/>
       <c r="B464" s="1"/>
       <c r="C464" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D464" s="11" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E464" s="31"/>
       <c r="F464" s="3"/>
@@ -32364,10 +32332,10 @@
       <c r="A465" s="49"/>
       <c r="B465" s="1"/>
       <c r="C465" s="9" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="D465" s="11" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E465" s="31"/>
       <c r="F465" s="3"/>
@@ -32395,13 +32363,13 @@
     <row r="466" spans="1:26" ht="20.399999999999999">
       <c r="A466" s="49"/>
       <c r="B466" s="5" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D466" s="11" t="s">
         <v>1322</v>
-      </c>
-      <c r="C466" s="9" t="s">
-        <v>1323</v>
-      </c>
-      <c r="D466" s="11" t="s">
-        <v>1324</v>
       </c>
       <c r="E466" s="31"/>
       <c r="F466" s="3"/>
@@ -32430,10 +32398,10 @@
       <c r="A467" s="49"/>
       <c r="B467" s="1"/>
       <c r="C467" s="9" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="D467" s="11" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="E467" s="31"/>
       <c r="F467" s="3"/>
@@ -32462,10 +32430,10 @@
       <c r="A468" s="49"/>
       <c r="B468" s="1"/>
       <c r="C468" s="9" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D468" s="11" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E468" s="31"/>
       <c r="F468" s="3"/>
@@ -32493,13 +32461,13 @@
     <row r="469" spans="1:26" ht="78">
       <c r="A469" s="49"/>
       <c r="B469" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D469" s="2" t="s">
         <v>1329</v>
-      </c>
-      <c r="C469" s="9" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D469" s="2" t="s">
-        <v>1331</v>
       </c>
       <c r="E469" s="31"/>
       <c r="F469" s="3"/>
@@ -32528,10 +32496,10 @@
       <c r="A470" s="49"/>
       <c r="B470" s="1"/>
       <c r="C470" s="9" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D470" s="11" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E470" s="31"/>
       <c r="F470" s="3"/>
@@ -32560,10 +32528,10 @@
       <c r="A471" s="49"/>
       <c r="B471" s="1"/>
       <c r="C471" s="9" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="D471" s="11" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="E471" s="31"/>
       <c r="F471" s="3"/>
@@ -32591,13 +32559,13 @@
     <row r="472" spans="1:26">
       <c r="A472" s="49"/>
       <c r="B472" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D472" s="11" t="s">
         <v>1336</v>
-      </c>
-      <c r="C472" s="9" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D472" s="11" t="s">
-        <v>1338</v>
       </c>
       <c r="E472" s="31"/>
       <c r="F472" s="3"/>
@@ -32626,10 +32594,10 @@
       <c r="A473" s="49"/>
       <c r="B473" s="1"/>
       <c r="C473" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D473" s="11" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="E473" s="31"/>
       <c r="F473" s="3"/>
@@ -32657,13 +32625,13 @@
     <row r="474" spans="1:26">
       <c r="A474" s="49"/>
       <c r="B474" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D474" s="11" t="s">
         <v>1341</v>
-      </c>
-      <c r="C474" s="9" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D474" s="11" t="s">
-        <v>1343</v>
       </c>
       <c r="E474" s="31"/>
       <c r="F474" s="3"/>
@@ -32692,10 +32660,10 @@
       <c r="A475" s="49"/>
       <c r="B475" s="1"/>
       <c r="C475" s="9" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="D475" s="11" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="E475" s="31"/>
       <c r="F475" s="3"/>
@@ -32724,10 +32692,10 @@
       <c r="A476" s="49"/>
       <c r="B476" s="1"/>
       <c r="C476" s="9" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="D476" s="11" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="E476" s="31"/>
       <c r="F476" s="3"/>
@@ -32755,13 +32723,13 @@
     <row r="477" spans="1:26">
       <c r="A477" s="49"/>
       <c r="B477" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D477" s="11" t="s">
         <v>1348</v>
-      </c>
-      <c r="C477" s="9" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D477" s="11" t="s">
-        <v>1350</v>
       </c>
       <c r="E477" s="31"/>
       <c r="F477" s="3"/>
@@ -32790,10 +32758,10 @@
       <c r="A478" s="49"/>
       <c r="B478" s="1"/>
       <c r="C478" s="9" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D478" s="11" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="E478" s="31"/>
       <c r="F478" s="3"/>
@@ -32822,10 +32790,10 @@
       <c r="A479" s="49"/>
       <c r="B479" s="1"/>
       <c r="C479" s="9" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D479" s="11" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E479" s="31"/>
       <c r="F479" s="3"/>
@@ -32853,13 +32821,13 @@
     <row r="480" spans="1:26">
       <c r="A480" s="49"/>
       <c r="B480" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D480" s="11" t="s">
         <v>1355</v>
-      </c>
-      <c r="C480" s="9" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D480" s="11" t="s">
-        <v>1357</v>
       </c>
       <c r="E480" s="31"/>
       <c r="F480" s="3"/>
@@ -32888,10 +32856,10 @@
       <c r="A481" s="49"/>
       <c r="B481" s="1"/>
       <c r="C481" s="9" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D481" s="11" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E481" s="31"/>
       <c r="F481" s="3"/>
@@ -32920,10 +32888,10 @@
       <c r="A482" s="49"/>
       <c r="B482" s="1"/>
       <c r="C482" s="9" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="D482" s="11" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E482" s="31"/>
       <c r="F482" s="3"/>
@@ -32951,13 +32919,13 @@
     <row r="483" spans="1:26">
       <c r="A483" s="49"/>
       <c r="B483" s="5" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D483" s="11" t="s">
         <v>1362</v>
-      </c>
-      <c r="C483" s="9" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D483" s="11" t="s">
-        <v>1364</v>
       </c>
       <c r="E483" s="31"/>
       <c r="F483" s="3"/>
@@ -32986,10 +32954,10 @@
       <c r="A484" s="49"/>
       <c r="B484" s="1"/>
       <c r="C484" s="9" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="D484" s="11" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E484" s="31"/>
       <c r="F484" s="3"/>
@@ -33017,13 +32985,13 @@
     <row r="485" spans="1:26">
       <c r="A485" s="49"/>
       <c r="B485" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D485" s="11" t="s">
         <v>1367</v>
-      </c>
-      <c r="C485" s="9" t="s">
-        <v>1368</v>
-      </c>
-      <c r="D485" s="11" t="s">
-        <v>1369</v>
       </c>
       <c r="E485" s="31"/>
       <c r="F485" s="3"/>
@@ -33052,10 +33020,10 @@
       <c r="A486" s="49"/>
       <c r="B486" s="1"/>
       <c r="C486" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="D486" s="11" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E486" s="31"/>
       <c r="F486" s="3"/>
@@ -33084,10 +33052,10 @@
       <c r="A487" s="49"/>
       <c r="B487" s="1"/>
       <c r="C487" s="9" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="D487" s="11" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E487" s="31"/>
       <c r="F487" s="3"/>
@@ -33115,13 +33083,13 @@
     <row r="488" spans="1:26">
       <c r="A488" s="49"/>
       <c r="B488" s="5" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C488" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D488" s="11" t="s">
         <v>1374</v>
-      </c>
-      <c r="C488" s="9" t="s">
-        <v>1375</v>
-      </c>
-      <c r="D488" s="11" t="s">
-        <v>1376</v>
       </c>
       <c r="E488" s="31"/>
       <c r="F488" s="3"/>
@@ -33150,10 +33118,10 @@
       <c r="A489" s="49"/>
       <c r="B489" s="1"/>
       <c r="C489" s="9" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="D489" s="11" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E489" s="31"/>
       <c r="F489" s="3"/>
@@ -33182,10 +33150,10 @@
       <c r="A490" s="49"/>
       <c r="B490" s="1"/>
       <c r="C490" s="9" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="D490" s="11" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E490" s="31"/>
       <c r="F490" s="3"/>
@@ -33213,13 +33181,13 @@
     <row r="491" spans="1:26">
       <c r="A491" s="49"/>
       <c r="B491" s="5" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C491" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D491" s="11" t="s">
         <v>1381</v>
-      </c>
-      <c r="C491" s="9" t="s">
-        <v>1382</v>
-      </c>
-      <c r="D491" s="11" t="s">
-        <v>1383</v>
       </c>
       <c r="E491" s="31"/>
       <c r="F491" s="3"/>
@@ -33248,10 +33216,10 @@
       <c r="A492" s="49"/>
       <c r="B492" s="1"/>
       <c r="C492" s="9" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="D492" s="11" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E492" s="31"/>
       <c r="F492" s="3"/>
@@ -33280,10 +33248,10 @@
       <c r="A493" s="49"/>
       <c r="B493" s="1"/>
       <c r="C493" s="9" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="D493" s="11" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="E493" s="31"/>
       <c r="F493" s="3"/>
@@ -33311,13 +33279,13 @@
     <row r="494" spans="1:26">
       <c r="A494" s="49"/>
       <c r="B494" s="5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C494" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D494" s="11" t="s">
         <v>1388</v>
-      </c>
-      <c r="C494" s="9" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D494" s="11" t="s">
-        <v>1390</v>
       </c>
       <c r="E494" s="31"/>
       <c r="F494" s="3"/>
@@ -33346,10 +33314,10 @@
       <c r="A495" s="49"/>
       <c r="B495" s="1"/>
       <c r="C495" s="9" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="D495" s="11" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="E495" s="31"/>
       <c r="F495" s="3"/>
@@ -33378,10 +33346,10 @@
       <c r="A496" s="49"/>
       <c r="B496" s="1"/>
       <c r="C496" s="9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="D496" s="11" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="E496" s="31"/>
       <c r="F496" s="3"/>
@@ -33409,10 +33377,10 @@
     <row r="497" spans="1:26">
       <c r="A497" s="49"/>
       <c r="B497" s="5" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="C497" s="9" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="31"/>
@@ -33442,10 +33410,10 @@
       <c r="A498" s="49"/>
       <c r="B498" s="1"/>
       <c r="C498" s="9" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="D498" s="11" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="E498" s="31"/>
       <c r="F498" s="3"/>
@@ -33474,10 +33442,10 @@
       <c r="A499" s="49"/>
       <c r="B499" s="1"/>
       <c r="C499" s="9" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D499" s="11" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E499" s="31"/>
       <c r="F499" s="3"/>
@@ -33505,13 +33473,13 @@
     <row r="500" spans="1:26">
       <c r="A500" s="49"/>
       <c r="B500" s="5" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C500" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D500" s="11" t="s">
         <v>1401</v>
-      </c>
-      <c r="C500" s="9" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D500" s="11" t="s">
-        <v>1403</v>
       </c>
       <c r="E500" s="31"/>
       <c r="F500" s="3"/>
@@ -33540,10 +33508,10 @@
       <c r="A501" s="49"/>
       <c r="B501" s="1"/>
       <c r="C501" s="9" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D501" s="11" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="E501" s="31"/>
       <c r="F501" s="3"/>
@@ -33572,10 +33540,10 @@
       <c r="A502" s="49"/>
       <c r="B502" s="1"/>
       <c r="C502" s="9" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D502" s="11" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="E502" s="31"/>
       <c r="F502" s="3"/>
@@ -33603,13 +33571,13 @@
     <row r="503" spans="1:26">
       <c r="A503" s="49"/>
       <c r="B503" s="12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C503" s="30" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D503" s="30" t="s">
         <v>1408</v>
-      </c>
-      <c r="C503" s="30" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D503" s="30" t="s">
-        <v>1410</v>
       </c>
       <c r="E503" s="31"/>
       <c r="F503" s="3"/>
@@ -33638,10 +33606,10 @@
       <c r="A504" s="49"/>
       <c r="B504" s="1"/>
       <c r="C504" s="30" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="D504" s="30" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E504" s="31"/>
       <c r="F504" s="3"/>
@@ -33669,13 +33637,13 @@
     <row r="505" spans="1:26">
       <c r="A505" s="49"/>
       <c r="B505" s="5" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D505" s="11" t="s">
         <v>1413</v>
-      </c>
-      <c r="C505" s="9" t="s">
-        <v>1414</v>
-      </c>
-      <c r="D505" s="11" t="s">
-        <v>1415</v>
       </c>
       <c r="E505" s="31"/>
       <c r="F505" s="3"/>
@@ -33704,10 +33672,10 @@
       <c r="A506" s="49"/>
       <c r="B506" s="1"/>
       <c r="C506" s="9" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="D506" s="11" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E506" s="31"/>
       <c r="F506" s="3"/>
@@ -33735,13 +33703,13 @@
     <row r="507" spans="1:26">
       <c r="A507" s="49"/>
       <c r="B507" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C507" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D507" s="11" t="s">
         <v>1418</v>
-      </c>
-      <c r="C507" s="9" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D507" s="11" t="s">
-        <v>1420</v>
       </c>
       <c r="E507" s="31"/>
       <c r="F507" s="3"/>
@@ -33770,10 +33738,10 @@
       <c r="A508" s="49"/>
       <c r="B508" s="1"/>
       <c r="C508" s="9" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="D508" s="11" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E508" s="31"/>
       <c r="F508" s="3"/>
@@ -33802,10 +33770,10 @@
       <c r="A509" s="49"/>
       <c r="B509" s="1"/>
       <c r="C509" s="9" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="D509" s="11" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E509" s="31"/>
       <c r="F509" s="3"/>
@@ -33833,13 +33801,13 @@
     <row r="510" spans="1:26">
       <c r="A510" s="49"/>
       <c r="B510" s="5" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C510" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D510" s="11" t="s">
         <v>1425</v>
-      </c>
-      <c r="C510" s="9" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D510" s="11" t="s">
-        <v>1427</v>
       </c>
       <c r="E510" s="31"/>
       <c r="F510" s="3"/>
@@ -33868,10 +33836,10 @@
       <c r="A511" s="49"/>
       <c r="B511" s="1"/>
       <c r="C511" s="9" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D511" s="11" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E511" s="31"/>
       <c r="F511" s="3"/>
@@ -33900,10 +33868,10 @@
       <c r="A512" s="49"/>
       <c r="B512" s="1"/>
       <c r="C512" s="9" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="D512" s="11" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E512" s="31"/>
       <c r="F512" s="3"/>
@@ -33931,13 +33899,13 @@
     <row r="513" spans="1:26" ht="20.399999999999999">
       <c r="A513" s="49"/>
       <c r="B513" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D513" s="11" t="s">
         <v>1432</v>
-      </c>
-      <c r="C513" s="9" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D513" s="11" t="s">
-        <v>1434</v>
       </c>
       <c r="E513" s="31"/>
       <c r="F513" s="3"/>
@@ -33966,10 +33934,10 @@
       <c r="A514" s="49"/>
       <c r="B514" s="1"/>
       <c r="C514" s="9" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="D514" s="11" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E514" s="31"/>
       <c r="F514" s="3"/>
@@ -33997,13 +33965,13 @@
     <row r="515" spans="1:26">
       <c r="A515" s="49"/>
       <c r="B515" s="5" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C515" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D515" s="11" t="s">
         <v>1437</v>
-      </c>
-      <c r="C515" s="9" t="s">
-        <v>1438</v>
-      </c>
-      <c r="D515" s="11" t="s">
-        <v>1439</v>
       </c>
       <c r="E515" s="31"/>
       <c r="F515" s="3"/>
@@ -34032,10 +34000,10 @@
       <c r="A516" s="49"/>
       <c r="B516" s="1"/>
       <c r="C516" s="9" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="D516" s="11" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E516" s="31"/>
       <c r="F516" s="3"/>
@@ -34064,10 +34032,10 @@
       <c r="A517" s="49"/>
       <c r="B517" s="1"/>
       <c r="C517" s="9" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="D517" s="11" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="E517" s="31"/>
       <c r="F517" s="3"/>
@@ -34095,13 +34063,13 @@
     <row r="518" spans="1:26">
       <c r="A518" s="49"/>
       <c r="B518" s="5" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C518" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D518" s="11" t="s">
         <v>1444</v>
-      </c>
-      <c r="C518" s="9" t="s">
-        <v>1445</v>
-      </c>
-      <c r="D518" s="11" t="s">
-        <v>1446</v>
       </c>
       <c r="E518" s="31"/>
       <c r="F518" s="3"/>
@@ -34130,10 +34098,10 @@
       <c r="A519" s="49"/>
       <c r="B519" s="1"/>
       <c r="C519" s="9" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D519" s="11" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E519" s="31"/>
       <c r="F519" s="3"/>
@@ -34162,10 +34130,10 @@
       <c r="A520" s="49"/>
       <c r="B520" s="1"/>
       <c r="C520" s="9" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D520" s="11" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E520" s="31"/>
       <c r="F520" s="3"/>
@@ -34193,13 +34161,13 @@
     <row r="521" spans="1:26">
       <c r="A521" s="49"/>
       <c r="B521" s="5" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D521" s="11" t="s">
         <v>1451</v>
-      </c>
-      <c r="C521" s="9" t="s">
-        <v>1452</v>
-      </c>
-      <c r="D521" s="11" t="s">
-        <v>1453</v>
       </c>
       <c r="E521" s="31"/>
       <c r="F521" s="3"/>
@@ -34228,10 +34196,10 @@
       <c r="A522" s="49"/>
       <c r="B522" s="1"/>
       <c r="C522" s="9" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="D522" s="11" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="E522" s="31"/>
       <c r="F522" s="3"/>
@@ -34259,13 +34227,13 @@
     <row r="523" spans="1:26">
       <c r="A523" s="49"/>
       <c r="B523" s="5" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C523" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D523" s="11" t="s">
         <v>1456</v>
-      </c>
-      <c r="C523" s="9" t="s">
-        <v>1457</v>
-      </c>
-      <c r="D523" s="11" t="s">
-        <v>1458</v>
       </c>
       <c r="E523" s="31"/>
       <c r="F523" s="3"/>
@@ -34294,10 +34262,10 @@
       <c r="A524" s="49"/>
       <c r="B524" s="1"/>
       <c r="C524" s="9" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="D524" s="11" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="E524" s="31"/>
       <c r="F524" s="3"/>
@@ -34326,10 +34294,10 @@
       <c r="A525" s="49"/>
       <c r="B525" s="1"/>
       <c r="C525" s="9" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="D525" s="11" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="E525" s="31"/>
       <c r="F525" s="3"/>
@@ -34357,13 +34325,13 @@
     <row r="526" spans="1:26">
       <c r="A526" s="49"/>
       <c r="B526" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="C526" s="5" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D526" s="11" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E526" s="31"/>
       <c r="F526" s="3"/>
@@ -34392,10 +34360,10 @@
       <c r="A527" s="49"/>
       <c r="B527" s="1"/>
       <c r="C527" s="9" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="D527" s="11" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E527" s="31"/>
       <c r="F527" s="3"/>
@@ -34424,10 +34392,10 @@
       <c r="A528" s="49"/>
       <c r="B528" s="1"/>
       <c r="C528" s="9" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="D528" s="11" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E528" s="31"/>
       <c r="F528" s="3"/>
@@ -34455,13 +34423,13 @@
     <row r="529" spans="1:26">
       <c r="A529" s="49"/>
       <c r="B529" s="5" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C529" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D529" s="11" t="s">
         <v>1469</v>
-      </c>
-      <c r="C529" s="9" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D529" s="11" t="s">
-        <v>1471</v>
       </c>
       <c r="E529" s="31"/>
       <c r="F529" s="3"/>
@@ -34490,10 +34458,10 @@
       <c r="A530" s="1"/>
       <c r="B530" s="1"/>
       <c r="C530" s="9" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="D530" s="11" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E530" s="31"/>
       <c r="F530" s="3"/>
@@ -34522,10 +34490,10 @@
       <c r="A531" s="1"/>
       <c r="B531" s="1"/>
       <c r="C531" s="9" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="D531" s="11" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E531" s="31"/>
       <c r="F531" s="3"/>
